--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\EletronicEgg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2E9E9D2B-E320-447D-BD79-9D4A13014D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC3614-5E3D-43C1-AED9-828BBB311D0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC748F4A-B77A-42D3-919B-40EFF9144FCF}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{CC748F4A-B77A-42D3-919B-40EFF9144FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>10k Thermistor 0402</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/murata-electronics/NCP15XH103F03RC/490-4801-6-ND/1644692</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/stmicroelectronics/H3LIS200DLTR/497-15698-1-ND/5267984</t>
   </si>
   <si>
@@ -150,12 +147,6 @@
     <t>https://www.allpcb.com/online_pcb_quote.html</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/CC0402KRX5R5BB105/311-1438-6-ND/2833887</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21A226MQQNNNE/1276-1100-6-ND/3891614</t>
-  </si>
-  <si>
     <t>CL21A226MQQNNNE</t>
   </si>
   <si>
@@ -165,27 +156,15 @@
     <t>22 uF 0805</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL05B104KO5NNNC/1276-1001-6-ND/3891515</t>
-  </si>
-  <si>
     <t>CL05B104KO5NNNC</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/taiyo-yuden/LBR2012T100K/587-2045-6-ND/1789050</t>
-  </si>
-  <si>
     <t>LBR2012T100K</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0402FR-0710KL/311-10.0KLRDKR-ND/732417</t>
-  </si>
-  <si>
     <t>RC0402FR-0710KL</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0402FR-0756KL/311-56.0KLRDKR-ND/732529</t>
-  </si>
-  <si>
     <t>RC0402FR-0756KL</t>
   </si>
   <si>
@@ -235,6 +214,27 @@
   </si>
   <si>
     <t>~30</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/CC0402KRX5R5BB105/311-1438-1-ND/2833744</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21A226MQQNNNE/1276-1100-1-ND/3889186</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL05B104KO5NNNC/1276-1001-1-ND/3889087</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/taiyo-yuden/LBR2012T100K/587-2045-1-ND/1788992</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0402FR-0710KL/311-10.0KLRCT-ND/729470</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0402FR-0756KL/311-56.0KLRCT-ND/729582</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics/NCP15XH103F03RC/490-4801-1-ND/1644682</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB41" sqref="AB41"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,13 +1751,13 @@
         <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="V1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -1801,35 +1801,35 @@
         <v>100</v>
       </c>
       <c r="V2">
-        <f>D2</f>
+        <f t="shared" ref="V2:AA2" si="0">D2</f>
         <v>1</v>
       </c>
       <c r="W2">
-        <f>E2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X2">
-        <f>F2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Y2">
-        <f>G2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Z2">
-        <f>H2</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="AA2">
-        <f>I2</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AC2" si="0">J2</f>
+        <f t="shared" ref="AB2:AC2" si="1">J2</f>
         <v>500</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="AE2">
@@ -1837,35 +1837,35 @@
         <v>1</v>
       </c>
       <c r="AF2">
-        <f t="shared" ref="AF2:AJ2" si="1">W2</f>
+        <f t="shared" ref="AF2:AJ2" si="2">W2</f>
         <v>5</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="AK2">
-        <f t="shared" ref="AK2" si="2">AB2</f>
+        <f t="shared" ref="AK2" si="3">AB2</f>
         <v>500</v>
       </c>
       <c r="AL2">
-        <f t="shared" ref="AL2" si="3">AC2</f>
+        <f t="shared" ref="AL2" si="4">AC2</f>
         <v>1000</v>
       </c>
       <c r="AM2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
       <c r="U3">
-        <f>S$2*C3</f>
+        <f t="shared" ref="U3:U20" si="5">S$2*C3</f>
         <v>100</v>
       </c>
       <c r="V3">
@@ -1916,11 +1916,11 @@
         <v>4.95</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AC3" si="4">IF(ISBLANK(J3),AA3,J3)</f>
+        <f t="shared" ref="AB3:AC3" si="6">IF(ISBLANK(J3),AA3,J3)</f>
         <v>4.95</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.95</v>
       </c>
       <c r="AE3">
@@ -1928,31 +1928,31 @@
         <v>4.95</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AL3" si="5">W3*MAX($U3,AF$2)/$S$2</f>
+        <f t="shared" ref="AF3:AL3" si="7">W3*MAX($U3,AF$2)/$S$2</f>
         <v>4.95</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.95</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24.75</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49.5</v>
       </c>
       <c r="AM3">
@@ -1989,75 +1989,75 @@
         <v>12</v>
       </c>
       <c r="U4">
-        <f>S$2*C4</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V19" si="6">D4</f>
+        <f t="shared" ref="V4:V19" si="8">D4</f>
         <v>6.3</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W19" si="7">IF(ISBLANK(E4),V4,E4)</f>
+        <f t="shared" ref="W4:W19" si="9">IF(ISBLANK(E4),V4,E4)</f>
         <v>6.3</v>
       </c>
       <c r="X4">
-        <f>IF(ISBLANK(F4),W4,F4)</f>
+        <f t="shared" ref="X4:X18" si="10">IF(ISBLANK(F4),W4,F4)</f>
         <v>5.25</v>
       </c>
       <c r="Y4">
-        <f>IF(ISBLANK(G4),X4,G4)</f>
+        <f t="shared" ref="Y4:Y18" si="11">IF(ISBLANK(G4),X4,G4)</f>
         <v>5.25</v>
       </c>
       <c r="Z4">
-        <f>IF(ISBLANK(H4),Y4,H4)</f>
+        <f t="shared" ref="Z4:Z18" si="12">IF(ISBLANK(H4),Y4,H4)</f>
         <v>5.25</v>
       </c>
       <c r="AA4">
-        <f>IF(ISBLANK(I4),Z4,I4)</f>
+        <f t="shared" ref="AA4:AA18" si="13">IF(ISBLANK(I4),Z4,I4)</f>
         <v>3.68</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AC4" si="8">IF(ISBLANK(J4),AA4,J4)</f>
+        <f t="shared" ref="AB4:AC4" si="14">IF(ISBLANK(J4),AA4,J4)</f>
         <v>3.0449999999999999</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.7930000000000001</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE20" si="9">V4*MAX($U4,AE$2)/$S$2</f>
+        <f t="shared" ref="AE4:AE20" si="15">V4*MAX($U4,AE$2)/$S$2</f>
         <v>6.3</v>
       </c>
       <c r="AF4">
-        <f t="shared" ref="AF4:AF20" si="10">W4*MAX($U4,AF$2)/$S$2</f>
+        <f t="shared" ref="AF4:AF20" si="16">W4*MAX($U4,AF$2)/$S$2</f>
         <v>6.3</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG20" si="11">X4*MAX($U4,AG$2)/$S$2</f>
+        <f t="shared" ref="AG4:AG20" si="17">X4*MAX($U4,AG$2)/$S$2</f>
         <v>5.25</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH20" si="12">Y4*MAX($U4,AH$2)/$S$2</f>
+        <f t="shared" ref="AH4:AH20" si="18">Y4*MAX($U4,AH$2)/$S$2</f>
         <v>5.25</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI20" si="13">Z4*MAX($U4,AI$2)/$S$2</f>
+        <f t="shared" ref="AI4:AI20" si="19">Z4*MAX($U4,AI$2)/$S$2</f>
         <v>5.25</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ20" si="14">AA4*MAX($U4,AJ$2)/$S$2</f>
+        <f t="shared" ref="AJ4:AJ20" si="20">AA4*MAX($U4,AJ$2)/$S$2</f>
         <v>3.68</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK20" si="15">AB4*MAX($U4,AK$2)/$S$2</f>
+        <f t="shared" ref="AK4:AK20" si="21">AB4*MAX($U4,AK$2)/$S$2</f>
         <v>15.225</v>
       </c>
       <c r="AL4">
-        <f t="shared" ref="AL4:AL20" si="16">AC4*MAX($U4,AL$2)/$S$2</f>
+        <f t="shared" ref="AL4:AL20" si="22">AC4*MAX($U4,AL$2)/$S$2</f>
         <v>27.93</v>
       </c>
       <c r="AM4">
-        <f t="shared" ref="AM4:AM19" si="17">MIN(AE4:AL4)</f>
+        <f t="shared" ref="AM4:AM19" si="23">MIN(AE4:AL4)</f>
         <v>3.68</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2091,87 +2091,87 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U5">
-        <f>S$2*C5</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.37</v>
       </c>
       <c r="W5">
-        <f t="shared" si="7"/>
-        <v>1.37</v>
-      </c>
-      <c r="X5">
-        <f>IF(ISBLANK(F5),W5,F5)</f>
-        <v>1.25</v>
-      </c>
-      <c r="Y5">
-        <f>IF(ISBLANK(G5),X5,G5)</f>
-        <v>1.69</v>
-      </c>
-      <c r="Z5">
-        <f>IF(ISBLANK(H5),Y5,H5)</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AA5">
-        <f>IF(ISBLANK(I5),Z5,I5)</f>
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" ref="AB5:AC5" si="18">IF(ISBLANK(J5),AA5,J5)</f>
-        <v>0.88936000000000004</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="18"/>
-        <v>0.88936000000000004</v>
-      </c>
-      <c r="AE5">
         <f t="shared" si="9"/>
         <v>1.37</v>
       </c>
+      <c r="X5">
+        <f t="shared" si="10"/>
+        <v>1.25</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="11"/>
+        <v>1.69</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="12"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="13"/>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AC5" si="24">IF(ISBLANK(J5),AA5,J5)</f>
+        <v>0.88936000000000004</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="24"/>
+        <v>0.88936000000000004</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="15"/>
+        <v>1.37</v>
+      </c>
       <c r="AF5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.37</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.69</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1.0669999999999999</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4.4467999999999996</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8.8935999999999993</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.0669999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2195,87 +2195,87 @@
         <v>4.1654299999999997</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U6">
-        <f>S$2*C6</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.34</v>
       </c>
       <c r="W6">
-        <f t="shared" si="7"/>
-        <v>7.34</v>
-      </c>
-      <c r="X6">
-        <f>IF(ISBLANK(F6),W6,F6)</f>
-        <v>6.63</v>
-      </c>
-      <c r="Y6">
-        <f>IF(ISBLANK(G6),X6,G6)</f>
-        <v>6.34</v>
-      </c>
-      <c r="Z6">
-        <f>IF(ISBLANK(H6),Y6,H6)</f>
-        <v>6.34</v>
-      </c>
-      <c r="AA6">
-        <f>IF(ISBLANK(I6),Z6,I6)</f>
-        <v>5.49</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" ref="AB6:AC6" si="19">IF(ISBLANK(J6),AA6,J6)</f>
-        <v>4.7825199999999999</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="19"/>
-        <v>4.1654299999999997</v>
-      </c>
-      <c r="AE6">
         <f t="shared" si="9"/>
         <v>7.34</v>
       </c>
-      <c r="AF6">
+      <c r="X6">
         <f t="shared" si="10"/>
-        <v>7.34</v>
-      </c>
-      <c r="AG6">
+        <v>6.63</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="11"/>
-        <v>6.63</v>
-      </c>
-      <c r="AH6">
+        <v>6.34</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="12"/>
         <v>6.34</v>
       </c>
+      <c r="AA6">
+        <f t="shared" si="13"/>
+        <v>5.49</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AC6" si="25">IF(ISBLANK(J6),AA6,J6)</f>
+        <v>4.7825199999999999</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="25"/>
+        <v>4.1654299999999997</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="15"/>
+        <v>7.34</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="16"/>
+        <v>7.34</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="17"/>
+        <v>6.63</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="18"/>
+        <v>6.34</v>
+      </c>
       <c r="AI6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6.34</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5.49</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>23.912599999999998</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>41.654299999999992</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5.49</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2290,87 +2290,87 @@
         <v>2.73</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U7">
-        <f>S$2*C7</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.32</v>
       </c>
       <c r="W7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.32</v>
       </c>
       <c r="X7">
-        <f>IF(ISBLANK(F7),W7,F7)</f>
+        <f t="shared" si="10"/>
         <v>3.32</v>
       </c>
       <c r="Y7">
-        <f>IF(ISBLANK(G7),X7,G7)</f>
+        <f t="shared" si="11"/>
         <v>3.02</v>
       </c>
       <c r="Z7">
-        <f>IF(ISBLANK(H7),Y7,H7)</f>
+        <f t="shared" si="12"/>
         <v>3.02</v>
       </c>
       <c r="AA7">
-        <f>IF(ISBLANK(I7),Z7,I7)</f>
+        <f t="shared" si="13"/>
         <v>2.73</v>
       </c>
       <c r="AB7">
-        <f t="shared" ref="AB7:AC7" si="20">IF(ISBLANK(J7),AA7,J7)</f>
+        <f t="shared" ref="AB7:AC7" si="26">IF(ISBLANK(J7),AA7,J7)</f>
         <v>2.73</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="26"/>
+        <v>2.73</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="15"/>
+        <v>3.32</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="16"/>
+        <v>3.32</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="17"/>
+        <v>3.32</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="18"/>
+        <v>3.02</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="19"/>
+        <v>3.02</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="20"/>
         <v>2.73</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="9"/>
-        <v>3.32</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="10"/>
-        <v>3.32</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="11"/>
-        <v>3.32</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="12"/>
-        <v>3.02</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="13"/>
-        <v>3.02</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="14"/>
-        <v>2.73</v>
-      </c>
       <c r="AK7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>13.65</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>27.3</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2.73</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2388,78 +2388,78 @@
         <v>2.31</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U8">
-        <f>S$2*C8</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.31</v>
       </c>
       <c r="W8">
-        <f t="shared" si="7"/>
-        <v>3.31</v>
-      </c>
-      <c r="X8">
-        <f>IF(ISBLANK(F8),W8,F8)</f>
-        <v>2.98</v>
-      </c>
-      <c r="Y8">
-        <f>IF(ISBLANK(G8),X8,G8)</f>
-        <v>2.81</v>
-      </c>
-      <c r="Z8">
-        <f>IF(ISBLANK(H8),Y8,H8)</f>
-        <v>2.81</v>
-      </c>
-      <c r="AA8">
-        <f>IF(ISBLANK(I8),Z8,I8)</f>
-        <v>2.31</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" ref="AB8:AC8" si="21">IF(ISBLANK(J8),AA8,J8)</f>
-        <v>2.31</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="21"/>
-        <v>2.31</v>
-      </c>
-      <c r="AE8">
         <f t="shared" si="9"/>
         <v>3.31</v>
       </c>
-      <c r="AF8">
+      <c r="X8">
         <f t="shared" si="10"/>
-        <v>3.31</v>
-      </c>
-      <c r="AG8">
+        <v>2.98</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="11"/>
-        <v>2.98</v>
-      </c>
-      <c r="AH8">
+        <v>2.81</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="12"/>
         <v>2.81</v>
       </c>
+      <c r="AA8">
+        <f t="shared" si="13"/>
+        <v>2.31</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ref="AB8:AC8" si="27">IF(ISBLANK(J8),AA8,J8)</f>
+        <v>2.31</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="27"/>
+        <v>2.31</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="15"/>
+        <v>3.31</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="16"/>
+        <v>3.31</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="17"/>
+        <v>2.98</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="18"/>
+        <v>2.81</v>
+      </c>
       <c r="AI8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.81</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2.31</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>11.55</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>23.1</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2.31</v>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2489,87 +2489,87 @@
         <v>1.18E-2</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="U9">
-        <f>S$2*C9</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="V9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="W9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="X9">
-        <f>IF(ISBLANK(F9),W9,F9)</f>
+        <f t="shared" si="10"/>
         <v>4.7E-2</v>
       </c>
       <c r="Y9">
-        <f>IF(ISBLANK(G9),X9,G9)</f>
+        <f t="shared" si="11"/>
         <v>4.7E-2</v>
       </c>
       <c r="Z9">
-        <f>IF(ISBLANK(H9),Y9,H9)</f>
+        <f t="shared" si="12"/>
         <v>4.7E-2</v>
       </c>
       <c r="AA9">
-        <f>IF(ISBLANK(I9),Z9,I9)</f>
+        <f t="shared" si="13"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB9">
-        <f t="shared" ref="AB9:AC9" si="22">IF(ISBLANK(J9),AA9,J9)</f>
+        <f t="shared" ref="AB9:AC9" si="28">IF(ISBLANK(J9),AA9,J9)</f>
         <v>1.502E-2</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="28"/>
+        <v>1.18E-2</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="17"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="18"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="19"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="20"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="21"/>
+        <v>7.51E-2</v>
+      </c>
+      <c r="AL9">
         <f t="shared" si="22"/>
-        <v>1.18E-2</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="9"/>
-        <v>0.2</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="11"/>
-        <v>9.4E-2</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="12"/>
-        <v>9.4E-2</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" si="13"/>
-        <v>9.4E-2</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="14"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="15"/>
-        <v>7.51E-2</v>
-      </c>
-      <c r="AL9">
-        <f t="shared" si="16"/>
         <v>0.11799999999999999</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2590,78 +2590,78 @@
         <v>3.7190000000000001E-2</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="U10">
-        <f>S$2*C10</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="V10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.18</v>
       </c>
       <c r="W10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18</v>
       </c>
       <c r="X10">
-        <f>IF(ISBLANK(F10),W10,F10)</f>
+        <f t="shared" si="10"/>
         <v>0.121</v>
       </c>
       <c r="Y10">
-        <f>IF(ISBLANK(G10),X10,G10)</f>
+        <f t="shared" si="11"/>
         <v>0.121</v>
       </c>
       <c r="Z10">
-        <f>IF(ISBLANK(H10),Y10,H10)</f>
+        <f t="shared" si="12"/>
         <v>0.121</v>
       </c>
       <c r="AA10">
-        <f>IF(ISBLANK(I10),Z10,I10)</f>
+        <f t="shared" si="13"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="AB10">
-        <f t="shared" ref="AB10:AC10" si="23">IF(ISBLANK(J10),AA10,J10)</f>
+        <f t="shared" ref="AB10:AC10" si="29">IF(ISBLANK(J10),AA10,J10)</f>
         <v>4.2040000000000001E-2</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="29"/>
+        <v>3.7190000000000001E-2</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="15"/>
+        <v>0.54</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="16"/>
+        <v>0.54</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="17"/>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="18"/>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="19"/>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="20"/>
+        <v>0.183</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="21"/>
+        <v>0.2102</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="22"/>
+        <v>0.37189999999999995</v>
+      </c>
+      <c r="AM10">
         <f t="shared" si="23"/>
-        <v>3.7190000000000001E-2</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="9"/>
-        <v>0.54</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="10"/>
-        <v>0.54</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="11"/>
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="12"/>
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="13"/>
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="14"/>
-        <v>0.183</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="15"/>
-        <v>0.2102</v>
-      </c>
-      <c r="AL10">
-        <f t="shared" si="16"/>
-        <v>0.37189999999999995</v>
-      </c>
-      <c r="AM10">
-        <f t="shared" si="17"/>
         <v>0.183</v>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2691,78 +2691,78 @@
         <v>6.0200000000000002E-3</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="U11">
-        <f>S$2*C11</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="V11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="X11">
-        <f>IF(ISBLANK(F11),W11,F11)</f>
+        <f t="shared" si="10"/>
         <v>2.4E-2</v>
       </c>
       <c r="Y11">
-        <f>IF(ISBLANK(G11),X11,G11)</f>
+        <f t="shared" si="11"/>
         <v>2.4E-2</v>
       </c>
       <c r="Z11">
-        <f>IF(ISBLANK(H11),Y11,H11)</f>
+        <f t="shared" si="12"/>
         <v>2.4E-2</v>
       </c>
       <c r="AA11">
-        <f>IF(ISBLANK(I11),Z11,I11)</f>
+        <f t="shared" si="13"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="AB11">
-        <f t="shared" ref="AB11:AC11" si="24">IF(ISBLANK(J11),AA11,J11)</f>
+        <f t="shared" ref="AB11:AC11" si="30">IF(ISBLANK(J11),AA11,J11)</f>
         <v>7.6600000000000001E-3</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>6.0200000000000002E-3</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3.8300000000000001E-2</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.0200000000000004E-2</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2792,78 +2792,78 @@
         <v>6.0380000000000003E-2</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="U12">
-        <f>S$2*C12</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W12">
-        <f t="shared" si="7"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X12">
-        <f>IF(ISBLANK(F12),W12,F12)</f>
-        <v>0.13</v>
-      </c>
-      <c r="Y12">
-        <f>IF(ISBLANK(G12),X12,G12)</f>
-        <v>0.13</v>
-      </c>
-      <c r="Z12">
-        <f>IF(ISBLANK(H12),Y12,H12)</f>
-        <v>0.13</v>
-      </c>
-      <c r="AA12">
-        <f>IF(ISBLANK(I12),Z12,I12)</f>
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" ref="AB12:AC12" si="25">IF(ISBLANK(J12),AA12,J12)</f>
-        <v>7.1879999999999999E-2</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="25"/>
-        <v>6.0380000000000003E-2</v>
-      </c>
-      <c r="AE12">
         <f t="shared" si="9"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AF12">
+      <c r="X12">
         <f t="shared" si="10"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AG12">
+        <v>0.13</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="11"/>
         <v>0.13</v>
       </c>
-      <c r="AH12">
+      <c r="Z12">
         <f t="shared" si="12"/>
         <v>0.13</v>
       </c>
+      <c r="AA12">
+        <f t="shared" si="13"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ref="AB12:AC12" si="31">IF(ISBLANK(J12),AA12,J12)</f>
+        <v>7.1879999999999999E-2</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="31"/>
+        <v>6.0380000000000003E-2</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="15"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="16"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="17"/>
+        <v>0.13</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="18"/>
+        <v>0.13</v>
+      </c>
       <c r="AI12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.13</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.3594</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.6038</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2890,78 +2890,78 @@
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="U13">
-        <f>S$2*C13</f>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="V13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="W13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="X13">
-        <f>IF(ISBLANK(F13),W13,F13)</f>
+        <f t="shared" si="10"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y13">
-        <f>IF(ISBLANK(G13),X13,G13)</f>
+        <f t="shared" si="11"/>
         <v>1.6E-2</v>
       </c>
       <c r="Z13">
-        <f>IF(ISBLANK(H13),Y13,H13)</f>
+        <f t="shared" si="12"/>
         <v>1.6E-2</v>
       </c>
       <c r="AA13">
-        <f>IF(ISBLANK(I13),Z13,I13)</f>
+        <f t="shared" si="13"/>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="AB13">
-        <f t="shared" ref="AB13:AC13" si="26">IF(ISBLANK(J13),AA13,J13)</f>
+        <f t="shared" ref="AB13:AC13" si="32">IF(ISBLANK(J13),AA13,J13)</f>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.08</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.08</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.08</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2.8900000000000002E-2</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2.8900000000000002E-2</v>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2988,78 +2988,78 @@
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="U14">
-        <f>S$2*C14</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="V14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="W14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="X14">
-        <f>IF(ISBLANK(F14),W14,F14)</f>
+        <f t="shared" si="10"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y14">
-        <f>IF(ISBLANK(G14),X14,G14)</f>
+        <f t="shared" si="11"/>
         <v>1.6E-2</v>
       </c>
       <c r="Z14">
-        <f>IF(ISBLANK(H14),Y14,H14)</f>
+        <f t="shared" si="12"/>
         <v>1.6E-2</v>
       </c>
       <c r="AA14">
-        <f>IF(ISBLANK(I14),Z14,I14)</f>
+        <f t="shared" si="13"/>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="AB14">
-        <f t="shared" ref="AB14:AC14" si="27">IF(ISBLANK(J14),AA14,J14)</f>
+        <f t="shared" ref="AB14:AC14" si="33">IF(ISBLANK(J14),AA14,J14)</f>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2.8900000000000002E-2</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3098,87 +3098,87 @@
         <v>5.6829999999999999E-2</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="U15">
-        <f>S$2*C15</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13400000000000001</v>
       </c>
       <c r="X15">
-        <f>IF(ISBLANK(F15),W15,F15)</f>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="Y15">
-        <f>IF(ISBLANK(G15),X15,G15)</f>
+        <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
       <c r="Z15">
-        <f>IF(ISBLANK(H15),Y15,H15)</f>
+        <f t="shared" si="12"/>
         <v>0.08</v>
       </c>
       <c r="AA15">
-        <f>IF(ISBLANK(I15),Z15,I15)</f>
+        <f t="shared" si="13"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AB15">
-        <f t="shared" ref="AB15:AC15" si="28">IF(ISBLANK(J15),AA15,J15)</f>
+        <f t="shared" ref="AB15:AC15" si="34">IF(ISBLANK(J15),AA15,J15)</f>
         <v>6.6299999999999998E-2</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>5.6829999999999999E-2</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.13400000000000001</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.11</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.08</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.33149999999999996</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.56830000000000003</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3206,87 +3206,87 @@
         <v>0.17</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U16">
-        <f>S$2*C16</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="W16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X16">
-        <f>IF(ISBLANK(F16),W16,F16)</f>
+        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
       <c r="Y16">
-        <f>IF(ISBLANK(G16),X16,G16)</f>
+        <f t="shared" si="11"/>
         <v>0.32</v>
       </c>
       <c r="Z16">
-        <f>IF(ISBLANK(H16),Y16,H16)</f>
+        <f t="shared" si="12"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA16">
-        <f>IF(ISBLANK(I16),Z16,I16)</f>
+        <f t="shared" si="13"/>
         <v>0.17</v>
       </c>
       <c r="AB16">
-        <f t="shared" ref="AB16:AC16" si="29">IF(ISBLANK(J16),AA16,J16)</f>
+        <f t="shared" ref="AB16:AC16" si="35">IF(ISBLANK(J16),AA16,J16)</f>
         <v>0.17</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.17</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.7</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.32</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.17</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.85</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.7</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.17</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3316,87 +3316,87 @@
         <v>2.52</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U17">
-        <f>S$2*C17</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>88.31</v>
       </c>
       <c r="W17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.661999999999999</v>
       </c>
       <c r="X17">
-        <f>IF(ISBLANK(F17),W17,F17)</f>
+        <f t="shared" si="10"/>
         <v>9.3379999999999992</v>
       </c>
       <c r="Y17">
-        <f>IF(ISBLANK(G17),X17,G17)</f>
+        <f t="shared" si="11"/>
         <v>4.0544000000000002</v>
       </c>
       <c r="Z17">
-        <f>IF(ISBLANK(H17),Y17,H17)</f>
+        <f t="shared" si="12"/>
         <v>3.1272000000000002</v>
       </c>
       <c r="AA17">
-        <f>IF(ISBLANK(I17),Z17,I17)</f>
+        <f t="shared" si="13"/>
         <v>2.52</v>
       </c>
       <c r="AB17">
-        <f t="shared" ref="AB17:AC17" si="30">IF(ISBLANK(J17),AA17,J17)</f>
+        <f t="shared" ref="AB17:AC17" si="36">IF(ISBLANK(J17),AA17,J17)</f>
         <v>2.52</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>2.52</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>88.31</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17.661999999999999</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>9.3379999999999992</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4.0544000000000002</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3.1272000000000002</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2.52</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>12.6</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>25.2</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2.52</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3413,87 +3413,87 @@
         <v>3.5710000000000002</v>
       </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="U18">
-        <f>S$2*C18</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35.71</v>
       </c>
       <c r="W18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1420000000000003</v>
       </c>
       <c r="X18">
-        <f>IF(ISBLANK(F18),W18,F18)</f>
+        <f t="shared" si="10"/>
         <v>3.5710000000000002</v>
       </c>
       <c r="Y18">
-        <f>IF(ISBLANK(G18),X18,G18)</f>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="Z18">
-        <f>IF(ISBLANK(H18),Y18,H18)</f>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AA18">
-        <f>IF(ISBLANK(I18),Z18,I18)</f>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" ref="AB18:AC19" si="31">IF(ISBLANK(J18),AA18,J18)</f>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="31"/>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="9"/>
-        <v>35.71</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="10"/>
-        <v>7.1420000000000003</v>
-      </c>
-      <c r="AG18">
         <f t="shared" si="11"/>
         <v>3.5710000000000002</v>
       </c>
-      <c r="AH18">
+      <c r="Z18">
         <f t="shared" si="12"/>
         <v>3.5710000000000002</v>
       </c>
-      <c r="AI18">
+      <c r="AA18">
         <f t="shared" si="13"/>
         <v>3.5710000000000002</v>
       </c>
-      <c r="AJ18">
-        <f t="shared" si="14"/>
+      <c r="AB18">
+        <f t="shared" ref="AB18:AC19" si="37">IF(ISBLANK(J18),AA18,J18)</f>
         <v>3.5710000000000002</v>
       </c>
-      <c r="AK18">
+      <c r="AC18">
+        <f t="shared" si="37"/>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="AE18">
         <f t="shared" si="15"/>
-        <v>17.855</v>
-      </c>
-      <c r="AL18">
+        <v>35.71</v>
+      </c>
+      <c r="AF18">
         <f t="shared" si="16"/>
-        <v>35.71</v>
-      </c>
-      <c r="AM18">
+        <v>7.1420000000000003</v>
+      </c>
+      <c r="AG18">
         <f t="shared" si="17"/>
         <v>3.5710000000000002</v>
       </c>
+      <c r="AH18">
+        <f t="shared" si="18"/>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="19"/>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="20"/>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="21"/>
+        <v>17.855</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="22"/>
+        <v>35.71</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="23"/>
+        <v>3.5710000000000002</v>
+      </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3511,90 +3511,90 @@
         <v>1.5859999999999999</v>
       </c>
       <c r="L19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="U19">
-        <f>S$2*C19</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.34</v>
       </c>
       <c r="W19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8679999999999999</v>
       </c>
       <c r="X19">
-        <f t="shared" ref="X19" si="32">IF(ISBLANK(F19),W19,F19)</f>
+        <f t="shared" ref="X19" si="38">IF(ISBLANK(F19),W19,F19)</f>
         <v>1.5859999999999999</v>
       </c>
       <c r="Y19">
-        <f t="shared" ref="Y19" si="33">IF(ISBLANK(G19),X19,G19)</f>
+        <f t="shared" ref="Y19" si="39">IF(ISBLANK(G19),X19,G19)</f>
         <v>1.5859999999999999</v>
       </c>
       <c r="Z19">
-        <f t="shared" ref="Z19" si="34">IF(ISBLANK(H19),Y19,H19)</f>
+        <f t="shared" ref="Z19" si="40">IF(ISBLANK(H19),Y19,H19)</f>
         <v>1.5859999999999999</v>
       </c>
       <c r="AA19">
-        <f t="shared" ref="AA19" si="35">IF(ISBLANK(I19),Z19,I19)</f>
+        <f t="shared" ref="AA19" si="41">IF(ISBLANK(I19),Z19,I19)</f>
         <v>1.5859999999999999</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1.5859999999999999</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1.5859999999999999</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>14.34</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.8680000000000003</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="11"/>
-        <v>1.5859999999999999</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="12"/>
-        <v>1.5859999999999999</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="13"/>
-        <v>1.5859999999999999</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="14"/>
-        <v>1.5859999999999999</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="15"/>
-        <v>7.9299999999999988</v>
-      </c>
-      <c r="AL19">
-        <f t="shared" si="16"/>
-        <v>15.859999999999998</v>
-      </c>
-      <c r="AM19">
         <f t="shared" si="17"/>
         <v>1.5859999999999999</v>
       </c>
+      <c r="AH19">
+        <f t="shared" si="18"/>
+        <v>1.5859999999999999</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="19"/>
+        <v>1.5859999999999999</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="20"/>
+        <v>1.5859999999999999</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="21"/>
+        <v>7.9299999999999988</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="22"/>
+        <v>15.859999999999998</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="23"/>
+        <v>1.5859999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3623,78 +3623,78 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="U20">
-        <f>S$2*C20</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V20">
-        <f t="shared" ref="V20" si="36">D20</f>
+        <f t="shared" ref="V20" si="42">D20</f>
         <v>8.67</v>
       </c>
       <c r="W20">
-        <f t="shared" ref="W20" si="37">IF(ISBLANK(E20),V20,E20)</f>
+        <f t="shared" ref="W20" si="43">IF(ISBLANK(E20),V20,E20)</f>
         <v>1.734</v>
       </c>
       <c r="X20">
-        <f t="shared" ref="X20" si="38">IF(ISBLANK(F20),W20,F20)</f>
+        <f t="shared" ref="X20" si="44">IF(ISBLANK(F20),W20,F20)</f>
         <v>0.86699999999999999</v>
       </c>
       <c r="Y20">
-        <f t="shared" ref="Y20" si="39">IF(ISBLANK(G20),X20,G20)</f>
+        <f t="shared" ref="Y20" si="45">IF(ISBLANK(G20),X20,G20)</f>
         <v>0.69359999999999999</v>
       </c>
       <c r="Z20">
-        <f t="shared" ref="Z20" si="40">IF(ISBLANK(H20),Y20,H20)</f>
+        <f t="shared" ref="Z20" si="46">IF(ISBLANK(H20),Y20,H20)</f>
         <v>0.86699999999999999</v>
       </c>
       <c r="AA20">
-        <f t="shared" ref="AA20" si="41">IF(ISBLANK(I20),Z20,I20)</f>
+        <f t="shared" ref="AA20" si="47">IF(ISBLANK(I20),Z20,I20)</f>
         <v>0.86699999999999999</v>
       </c>
       <c r="AB20">
-        <f t="shared" ref="AB20" si="42">IF(ISBLANK(J20),AA20,J20)</f>
+        <f t="shared" ref="AB20" si="48">IF(ISBLANK(J20),AA20,J20)</f>
         <v>0.86699999999999999</v>
       </c>
       <c r="AC20">
-        <f t="shared" ref="AC20" si="43">IF(ISBLANK(K20),AB20,K20)</f>
+        <f t="shared" ref="AC20" si="49">IF(ISBLANK(K20),AB20,K20)</f>
         <v>0.86699999999999999</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>8.67</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.734</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.86699999999999999</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.69359999999999999</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.86699999999999999</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.86699999999999999</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4.335</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8.67</v>
       </c>
       <c r="AM20">
-        <f t="shared" ref="AM20" si="44">MIN(AE20:AL20)</f>
+        <f t="shared" ref="AM20" si="50">MIN(AE20:AL20)</f>
         <v>0.69359999999999999</v>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X28">
-        <f t="shared" ref="X28:X45" si="45">X27+5</f>
+        <f t="shared" ref="X28:X45" si="51">X27+5</f>
         <v>15</v>
       </c>
       <c r="Y28">
@@ -3740,7 +3740,7 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>20</v>
       </c>
       <c r="Y29">
@@ -3749,7 +3749,7 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>25</v>
       </c>
       <c r="Y30">
@@ -3758,7 +3758,7 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>30</v>
       </c>
       <c r="Y31">
@@ -3767,7 +3767,7 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>35</v>
       </c>
       <c r="Y32">
@@ -3776,7 +3776,7 @@
     </row>
     <row r="33" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>40</v>
       </c>
       <c r="Y33">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="34" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X34">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>45</v>
       </c>
       <c r="Y34">
@@ -3794,7 +3794,7 @@
     </row>
     <row r="35" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>50</v>
       </c>
       <c r="Y35">
@@ -3803,7 +3803,7 @@
     </row>
     <row r="36" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>55</v>
       </c>
       <c r="Y36">
@@ -3812,7 +3812,7 @@
     </row>
     <row r="37" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>60</v>
       </c>
       <c r="Y37">
@@ -3821,7 +3821,7 @@
     </row>
     <row r="38" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>65</v>
       </c>
       <c r="Y38">
@@ -3830,7 +3830,7 @@
     </row>
     <row r="39" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X39">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>70</v>
       </c>
       <c r="Y39">
@@ -3839,7 +3839,7 @@
     </row>
     <row r="40" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X40">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>75</v>
       </c>
       <c r="Y40">
@@ -3848,7 +3848,7 @@
     </row>
     <row r="41" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X41">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>80</v>
       </c>
       <c r="Y41">
@@ -3857,7 +3857,7 @@
     </row>
     <row r="42" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X42">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>85</v>
       </c>
       <c r="Y42">
@@ -3866,7 +3866,7 @@
     </row>
     <row r="43" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X43">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>90</v>
       </c>
       <c r="Y43">
@@ -3876,12 +3876,12 @@
         <v>10</v>
       </c>
       <c r="AC43" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X44">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>95</v>
       </c>
       <c r="Y44">
@@ -3891,12 +3891,12 @@
         <v>25</v>
       </c>
       <c r="AC44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X45">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="Y45">
@@ -3906,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="AC45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\EletronicEgg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC3614-5E3D-43C1-AED9-828BBB311D0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36387D4-F9DA-4713-B951-5C7C4560D786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{CC748F4A-B77A-42D3-919B-40EFF9144FCF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>400 mAh Battery</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/murata-electronics/NCP15XH103F03RC/490-4801-1-ND/1644682</t>
+  </si>
+  <si>
+    <t>2.2uF 0402</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics/GRM155R61A225KE95D/490-10451-1-ND/5026361</t>
+  </si>
+  <si>
+    <t>GRM155R61A225KE95D</t>
   </si>
 </sst>
 </file>
@@ -270,11 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +399,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BOM!$X$25:$X$45</c:f>
+              <c:f>BOM!$X$26:$X$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -461,7 +471,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BOM!$Y$25:$Y$45</c:f>
+              <c:f>BOM!$Y$26:$Y$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1401,13 +1411,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1733,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8EB424-57BA-4A49-86A1-3A232E6B3ACD}">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U20" si="5">S$2*C3</f>
+        <f t="shared" ref="U3:U21" si="5">S$2*C3</f>
         <v>100</v>
       </c>
       <c r="V3">
@@ -1993,27 +2003,27 @@
         <v>100</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V19" si="8">D4</f>
+        <f t="shared" ref="V4:V20" si="8">D4</f>
         <v>6.3</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W19" si="9">IF(ISBLANK(E4),V4,E4)</f>
+        <f t="shared" ref="W4:W20" si="9">IF(ISBLANK(E4),V4,E4)</f>
         <v>6.3</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X18" si="10">IF(ISBLANK(F4),W4,F4)</f>
+        <f t="shared" ref="X4:X19" si="10">IF(ISBLANK(F4),W4,F4)</f>
         <v>5.25</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y18" si="11">IF(ISBLANK(G4),X4,G4)</f>
+        <f t="shared" ref="Y4:Y19" si="11">IF(ISBLANK(G4),X4,G4)</f>
         <v>5.25</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z18" si="12">IF(ISBLANK(H4),Y4,H4)</f>
+        <f t="shared" ref="Z4:Z19" si="12">IF(ISBLANK(H4),Y4,H4)</f>
         <v>5.25</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA18" si="13">IF(ISBLANK(I4),Z4,I4)</f>
+        <f t="shared" ref="AA4:AA19" si="13">IF(ISBLANK(I4),Z4,I4)</f>
         <v>3.68</v>
       </c>
       <c r="AB4">
@@ -2025,39 +2035,39 @@
         <v>2.7930000000000001</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE20" si="15">V4*MAX($U4,AE$2)/$S$2</f>
+        <f t="shared" ref="AE4:AE21" si="15">V4*MAX($U4,AE$2)/$S$2</f>
         <v>6.3</v>
       </c>
       <c r="AF4">
-        <f t="shared" ref="AF4:AF20" si="16">W4*MAX($U4,AF$2)/$S$2</f>
+        <f t="shared" ref="AF4:AF21" si="16">W4*MAX($U4,AF$2)/$S$2</f>
         <v>6.3</v>
       </c>
       <c r="AG4">
-        <f t="shared" ref="AG4:AG20" si="17">X4*MAX($U4,AG$2)/$S$2</f>
+        <f t="shared" ref="AG4:AG21" si="17">X4*MAX($U4,AG$2)/$S$2</f>
         <v>5.25</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH20" si="18">Y4*MAX($U4,AH$2)/$S$2</f>
+        <f t="shared" ref="AH4:AH21" si="18">Y4*MAX($U4,AH$2)/$S$2</f>
         <v>5.25</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI20" si="19">Z4*MAX($U4,AI$2)/$S$2</f>
+        <f t="shared" ref="AI4:AI21" si="19">Z4*MAX($U4,AI$2)/$S$2</f>
         <v>5.25</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ20" si="20">AA4*MAX($U4,AJ$2)/$S$2</f>
+        <f t="shared" ref="AJ4:AJ21" si="20">AA4*MAX($U4,AJ$2)/$S$2</f>
         <v>3.68</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK20" si="21">AB4*MAX($U4,AK$2)/$S$2</f>
+        <f t="shared" ref="AK4:AK21" si="21">AB4*MAX($U4,AK$2)/$S$2</f>
         <v>15.225</v>
       </c>
       <c r="AL4">
-        <f t="shared" ref="AL4:AL20" si="22">AC4*MAX($U4,AL$2)/$S$2</f>
+        <f t="shared" ref="AL4:AL21" si="22">AC4*MAX($U4,AL$2)/$S$2</f>
         <v>27.93</v>
       </c>
       <c r="AM4">
-        <f t="shared" ref="AM4:AM19" si="23">MIN(AE4:AL4)</f>
+        <f t="shared" ref="AM4:AM20" si="23">MIN(AE4:AL4)</f>
         <v>3.68</v>
       </c>
     </row>
@@ -2565,434 +2575,437 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
+      <c r="A10" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F10">
-        <v>0.121</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I10">
-        <v>6.0999999999999999E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="J10">
-        <v>4.2040000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="K10">
-        <v>3.7190000000000001E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="U10">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="V10">
+        <f t="shared" ref="V10" si="29">D10</f>
+        <v>0.12</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ref="W10" si="30">IF(ISBLANK(E10),V10,E10)</f>
+        <v>0.12</v>
+      </c>
+      <c r="X10">
+        <f t="shared" ref="X10" si="31">IF(ISBLANK(F10),W10,F10)</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ref="Y10" si="32">IF(ISBLANK(G10),X10,G10)</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10" si="33">IF(ISBLANK(H10),Y10,H10)</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" ref="AA10" si="34">IF(ISBLANK(I10),Z10,I10)</f>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ref="AB10" si="35">IF(ISBLANK(J10),AA10,J10)</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" ref="AC10" si="36">IF(ISBLANK(K10),AB10,K10)</f>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" ref="AE10" si="37">V10*MAX($U10,AE$2)/$S$2</f>
+        <v>0.36</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" ref="AF10" si="38">W10*MAX($U10,AF$2)/$S$2</f>
+        <v>0.36</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" ref="AG10" si="39">X10*MAX($U10,AG$2)/$S$2</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" ref="AH10" si="40">Y10*MAX($U10,AH$2)/$S$2</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" ref="AI10" si="41">Z10*MAX($U10,AI$2)/$S$2</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" ref="AJ10" si="42">AA10*MAX($U10,AJ$2)/$S$2</f>
+        <v>0.1242</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" ref="AK10" si="43">AB10*MAX($U10,AK$2)/$S$2</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" ref="AL10" si="44">AC10*MAX($U10,AL$2)/$S$2</f>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" ref="AM10" si="45">MIN(AE10:AL10)</f>
+        <v>0.1242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.18</v>
+      </c>
+      <c r="F11">
+        <v>0.121</v>
+      </c>
+      <c r="I11">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>4.2040000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>3.7190000000000001E-2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="8"/>
         <v>0.18</v>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f t="shared" si="9"/>
         <v>0.18</v>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f t="shared" si="10"/>
         <v>0.121</v>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f t="shared" si="11"/>
         <v>0.121</v>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f t="shared" si="12"/>
         <v>0.121</v>
       </c>
-      <c r="AA10">
+      <c r="AA11">
         <f t="shared" si="13"/>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AB10">
-        <f t="shared" ref="AB10:AC10" si="29">IF(ISBLANK(J10),AA10,J10)</f>
+      <c r="AB11">
+        <f t="shared" ref="AB11:AC11" si="46">IF(ISBLANK(J11),AA11,J11)</f>
         <v>4.2040000000000001E-2</v>
       </c>
-      <c r="AC10">
-        <f t="shared" si="29"/>
+      <c r="AC11">
+        <f t="shared" si="46"/>
         <v>3.7190000000000001E-2</v>
       </c>
-      <c r="AE10">
+      <c r="AE11">
         <f t="shared" si="15"/>
-        <v>0.54</v>
-      </c>
-      <c r="AF10">
+        <v>0.36</v>
+      </c>
+      <c r="AF11">
         <f t="shared" si="16"/>
-        <v>0.54</v>
-      </c>
-      <c r="AG10">
+        <v>0.36</v>
+      </c>
+      <c r="AG11">
         <f t="shared" si="17"/>
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="AH10">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AH11">
         <f t="shared" si="18"/>
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="AI10">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="19"/>
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="AJ10">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="20"/>
-        <v>0.183</v>
-      </c>
-      <c r="AK10">
+        <v>0.122</v>
+      </c>
+      <c r="AK11">
         <f t="shared" si="21"/>
         <v>0.2102</v>
       </c>
-      <c r="AL10">
+      <c r="AL11">
         <f t="shared" si="22"/>
         <v>0.37189999999999995</v>
       </c>
-      <c r="AM10">
+      <c r="AM11">
         <f t="shared" si="23"/>
-        <v>0.183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
         <v>0.1</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>2.4E-2</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>7.6600000000000001E-3</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>63</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="V11">
+        <v>400</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f t="shared" si="10"/>
         <v>2.4E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f t="shared" si="11"/>
         <v>2.4E-2</v>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f t="shared" si="12"/>
         <v>2.4E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AA12">
         <f t="shared" si="13"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AB11">
-        <f t="shared" ref="AB11:AC11" si="30">IF(ISBLANK(J11),AA11,J11)</f>
+      <c r="AB12">
+        <f t="shared" ref="AB12:AC12" si="47">IF(ISBLANK(J12),AA12,J12)</f>
         <v>7.6600000000000001E-3</v>
       </c>
-      <c r="AC11">
-        <f t="shared" si="30"/>
+      <c r="AC12">
+        <f t="shared" si="47"/>
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="AE11">
+      <c r="AE12">
         <f t="shared" si="15"/>
-        <v>0.3</v>
-      </c>
-      <c r="AF11">
+        <v>0.4</v>
+      </c>
+      <c r="AF12">
         <f t="shared" si="16"/>
-        <v>0.3</v>
-      </c>
-      <c r="AG11">
+        <v>0.4</v>
+      </c>
+      <c r="AG12">
         <f t="shared" si="17"/>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="AH11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AH12">
         <f t="shared" si="18"/>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="AI11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="19"/>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="AJ11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="20"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="AK11">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AK12">
         <f t="shared" si="21"/>
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="AL11">
+      <c r="AL12">
         <f t="shared" si="22"/>
         <v>6.0200000000000004E-2</v>
       </c>
-      <c r="AM11">
+      <c r="AM12">
         <f t="shared" si="23"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.13</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>7.1879999999999999E-2</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>6.0380000000000003E-2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" t="s">
         <v>64</v>
       </c>
-      <c r="U12">
+      <c r="U13">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f t="shared" si="8"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f t="shared" si="9"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f t="shared" si="10"/>
         <v>0.13</v>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f t="shared" si="11"/>
         <v>0.13</v>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <f t="shared" si="12"/>
         <v>0.13</v>
       </c>
-      <c r="AA12">
+      <c r="AA13">
         <f t="shared" si="13"/>
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="AB12">
-        <f t="shared" ref="AB12:AC12" si="31">IF(ISBLANK(J12),AA12,J12)</f>
+      <c r="AB13">
+        <f t="shared" ref="AB13:AC13" si="48">IF(ISBLANK(J13),AA13,J13)</f>
         <v>7.1879999999999999E-2</v>
       </c>
-      <c r="AC12">
-        <f t="shared" si="31"/>
+      <c r="AC13">
+        <f t="shared" si="48"/>
         <v>6.0380000000000003E-2</v>
       </c>
-      <c r="AE12">
+      <c r="AE13">
         <f t="shared" si="15"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AF12">
+      <c r="AF13">
         <f t="shared" si="16"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AG12">
+      <c r="AG13">
         <f t="shared" si="17"/>
         <v>0.13</v>
       </c>
-      <c r="AH12">
+      <c r="AH13">
         <f t="shared" si="18"/>
         <v>0.13</v>
       </c>
-      <c r="AI12">
+      <c r="AI13">
         <f t="shared" si="19"/>
         <v>0.13</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ13">
         <f t="shared" si="20"/>
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="AK12">
+      <c r="AK13">
         <f t="shared" si="21"/>
         <v>0.3594</v>
       </c>
-      <c r="AL12">
+      <c r="AL13">
         <f t="shared" si="22"/>
         <v>0.6038</v>
       </c>
-      <c r="AM12">
+      <c r="AM13">
         <f t="shared" si="23"/>
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.1</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>1.6E-2</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>2.8900000000000002E-3</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L14" t="s">
         <v>65</v>
       </c>
-      <c r="U13">
+      <c r="U14">
         <f t="shared" si="5"/>
         <v>500</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="10"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="11"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="12"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="13"/>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" ref="AB13:AC13" si="32">IF(ISBLANK(J13),AA13,J13)</f>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="32"/>
-        <v>2.8900000000000002E-3</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="15"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="16"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="17"/>
-        <v>0.08</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="18"/>
-        <v>0.08</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="19"/>
-        <v>0.08</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="20"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="21"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="AL13">
-        <f t="shared" si="22"/>
-        <v>2.8900000000000002E-2</v>
-      </c>
-      <c r="AM13">
-        <f t="shared" si="23"/>
-        <v>2.8900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="F14">
-        <v>1.6E-2</v>
-      </c>
-      <c r="I14">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="K14">
-        <v>2.8900000000000002E-3</v>
-      </c>
-      <c r="L14" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="5"/>
-        <v>200</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
@@ -3019,36 +3032,36 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="AB14">
-        <f t="shared" ref="AB14:AC14" si="33">IF(ISBLANK(J14),AA14,J14)</f>
+        <f t="shared" ref="AB14:AC14" si="49">IF(ISBLANK(J14),AA14,J14)</f>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="AE14">
         <f t="shared" si="15"/>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AF14">
         <f t="shared" si="16"/>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AG14">
         <f t="shared" si="17"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AH14">
         <f t="shared" si="18"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AI14">
         <f t="shared" si="19"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="20"/>
-        <v>1.2800000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AK14">
         <f t="shared" si="21"/>
@@ -3060,153 +3073,143 @@
       </c>
       <c r="AM14">
         <f t="shared" si="23"/>
-        <v>1.2800000000000001E-2</v>
+        <v>2.8900000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E15">
-        <v>0.13400000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F15">
-        <v>0.12</v>
-      </c>
-      <c r="G15">
-        <v>0.11</v>
-      </c>
-      <c r="H15">
-        <v>0.08</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I15">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>6.6299999999999998E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="K15">
-        <v>5.6829999999999999E-2</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U15">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>0.13400000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="X15">
         <f t="shared" si="10"/>
-        <v>0.12</v>
+        <v>1.6E-2</v>
       </c>
       <c r="Y15">
         <f t="shared" si="11"/>
-        <v>0.11</v>
+        <v>1.6E-2</v>
       </c>
       <c r="Z15">
         <f t="shared" si="12"/>
-        <v>0.08</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AA15">
         <f t="shared" si="13"/>
-        <v>7.5999999999999998E-2</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="AB15">
-        <f t="shared" ref="AB15:AC15" si="34">IF(ISBLANK(J15),AA15,J15)</f>
-        <v>6.6299999999999998E-2</v>
+        <f t="shared" ref="AB15:AC15" si="50">IF(ISBLANK(J15),AA15,J15)</f>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="34"/>
-        <v>5.6829999999999999E-2</v>
+        <f t="shared" si="50"/>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="AE15">
         <f t="shared" si="15"/>
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AF15">
         <f t="shared" si="16"/>
-        <v>0.13400000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AG15">
         <f t="shared" si="17"/>
-        <v>0.12</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AH15">
         <f t="shared" si="18"/>
-        <v>0.11</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AI15">
         <f t="shared" si="19"/>
-        <v>0.08</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="20"/>
-        <v>7.5999999999999998E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="AK15">
         <f t="shared" si="21"/>
-        <v>0.33149999999999996</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AL15">
         <f t="shared" si="22"/>
-        <v>0.56830000000000003</v>
+        <v>2.8900000000000002E-2</v>
       </c>
       <c r="AM15">
         <f t="shared" si="23"/>
-        <v>7.5999999999999998E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="F16">
-        <f>7/10</f>
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="G16">
-        <f>8/25</f>
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="H16">
-        <f>14/50</f>
-        <v>0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="I16">
-        <f>17/100</f>
-        <v>0.17</v>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="K16">
+        <v>5.6829999999999999E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="U16">
         <f t="shared" si="5"/>
@@ -3214,109 +3217,107 @@
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="X16">
         <f t="shared" si="10"/>
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="Y16">
         <f t="shared" si="11"/>
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="Z16">
         <f t="shared" si="12"/>
-        <v>0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="AA16">
         <f t="shared" si="13"/>
-        <v>0.17</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="AB16">
-        <f t="shared" ref="AB16:AC16" si="35">IF(ISBLANK(J16),AA16,J16)</f>
-        <v>0.17</v>
+        <f t="shared" ref="AB16:AC16" si="51">IF(ISBLANK(J16),AA16,J16)</f>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="35"/>
-        <v>0.17</v>
+        <f t="shared" si="51"/>
+        <v>5.6829999999999999E-2</v>
       </c>
       <c r="AE16">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF16">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="AG16">
         <f t="shared" si="17"/>
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="AH16">
         <f t="shared" si="18"/>
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="AI16">
         <f t="shared" si="19"/>
-        <v>0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="20"/>
-        <v>0.17</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="AK16">
         <f t="shared" si="21"/>
-        <v>0.85</v>
+        <v>0.33149999999999996</v>
       </c>
       <c r="AL16">
         <f t="shared" si="22"/>
-        <v>1.7</v>
+        <v>0.56830000000000003</v>
       </c>
       <c r="AM16">
         <f t="shared" si="23"/>
-        <v>0.17</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <f>E17*5</f>
-        <v>88.31</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <f>88.31/5</f>
-        <v>17.661999999999999</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <f>93.38/10</f>
-        <v>9.3379999999999992</v>
+        <f>7/10</f>
+        <v>0.7</v>
       </c>
       <c r="G17">
-        <f>101.36/25</f>
-        <v>4.0544000000000002</v>
+        <f>8/25</f>
+        <v>0.32</v>
       </c>
       <c r="H17">
-        <f>156.36/50</f>
-        <v>3.1272000000000002</v>
+        <f>14/50</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I17">
-        <f>252/100</f>
-        <v>2.52</v>
+        <f>17/100</f>
+        <v>0.17</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U17">
         <f t="shared" si="5"/>
@@ -3324,96 +3325,109 @@
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>88.31</v>
+        <v>5</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>17.661999999999999</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <f t="shared" si="10"/>
-        <v>9.3379999999999992</v>
+        <v>0.7</v>
       </c>
       <c r="Y17">
         <f t="shared" si="11"/>
-        <v>4.0544000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="Z17">
         <f t="shared" si="12"/>
-        <v>3.1272000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AA17">
         <f t="shared" si="13"/>
-        <v>2.52</v>
+        <v>0.17</v>
       </c>
       <c r="AB17">
-        <f t="shared" ref="AB17:AC17" si="36">IF(ISBLANK(J17),AA17,J17)</f>
-        <v>2.52</v>
+        <f t="shared" ref="AB17:AC17" si="52">IF(ISBLANK(J17),AA17,J17)</f>
+        <v>0.17</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="36"/>
-        <v>2.52</v>
+        <f t="shared" si="52"/>
+        <v>0.17</v>
       </c>
       <c r="AE17">
         <f t="shared" si="15"/>
-        <v>88.31</v>
+        <v>5</v>
       </c>
       <c r="AF17">
         <f t="shared" si="16"/>
-        <v>17.661999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG17">
         <f t="shared" si="17"/>
-        <v>9.3379999999999992</v>
+        <v>0.7</v>
       </c>
       <c r="AH17">
         <f t="shared" si="18"/>
-        <v>4.0544000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="AI17">
         <f t="shared" si="19"/>
-        <v>3.1272000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="20"/>
-        <v>2.52</v>
+        <v>0.17</v>
       </c>
       <c r="AK17">
         <f t="shared" si="21"/>
-        <v>12.6</v>
+        <v>0.85</v>
       </c>
       <c r="AL17">
         <f t="shared" si="22"/>
-        <v>25.2</v>
+        <v>1.7</v>
       </c>
       <c r="AM17">
         <f t="shared" si="23"/>
-        <v>2.52</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>35.71</v>
+        <f>E18*5</f>
+        <v>88.31</v>
       </c>
       <c r="E18">
-        <f>35.71/5</f>
-        <v>7.1420000000000003</v>
+        <f>88.31/5</f>
+        <v>17.661999999999999</v>
       </c>
       <c r="F18">
-        <f>35.71/10</f>
-        <v>3.5710000000000002</v>
+        <f>93.38/10</f>
+        <v>9.3379999999999992</v>
+      </c>
+      <c r="G18">
+        <f>101.36/25</f>
+        <v>4.0544000000000002</v>
+      </c>
+      <c r="H18">
+        <f>156.36/50</f>
+        <v>3.1272000000000002</v>
+      </c>
+      <c r="I18">
+        <f>252/100</f>
+        <v>2.52</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="U18">
         <f t="shared" si="5"/>
@@ -3421,100 +3435,96 @@
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>35.71</v>
+        <v>88.31</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>7.1420000000000003</v>
+        <v>17.661999999999999</v>
       </c>
       <c r="X18">
         <f t="shared" si="10"/>
-        <v>3.5710000000000002</v>
+        <v>9.3379999999999992</v>
       </c>
       <c r="Y18">
         <f t="shared" si="11"/>
-        <v>3.5710000000000002</v>
+        <v>4.0544000000000002</v>
       </c>
       <c r="Z18">
         <f t="shared" si="12"/>
-        <v>3.5710000000000002</v>
+        <v>3.1272000000000002</v>
       </c>
       <c r="AA18">
         <f t="shared" si="13"/>
-        <v>3.5710000000000002</v>
+        <v>2.52</v>
       </c>
       <c r="AB18">
-        <f t="shared" ref="AB18:AC19" si="37">IF(ISBLANK(J18),AA18,J18)</f>
-        <v>3.5710000000000002</v>
+        <f t="shared" ref="AB18:AC18" si="53">IF(ISBLANK(J18),AA18,J18)</f>
+        <v>2.52</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="37"/>
-        <v>3.5710000000000002</v>
+        <f t="shared" si="53"/>
+        <v>2.52</v>
       </c>
       <c r="AE18">
         <f t="shared" si="15"/>
-        <v>35.71</v>
+        <v>88.31</v>
       </c>
       <c r="AF18">
         <f t="shared" si="16"/>
-        <v>7.1420000000000003</v>
+        <v>17.661999999999999</v>
       </c>
       <c r="AG18">
         <f t="shared" si="17"/>
-        <v>3.5710000000000002</v>
+        <v>9.3379999999999992</v>
       </c>
       <c r="AH18">
         <f t="shared" si="18"/>
-        <v>3.5710000000000002</v>
+        <v>4.0544000000000002</v>
       </c>
       <c r="AI18">
         <f t="shared" si="19"/>
-        <v>3.5710000000000002</v>
+        <v>3.1272000000000002</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="20"/>
-        <v>3.5710000000000002</v>
+        <v>2.52</v>
       </c>
       <c r="AK18">
         <f t="shared" si="21"/>
-        <v>17.855</v>
+        <v>12.6</v>
       </c>
       <c r="AL18">
         <f t="shared" si="22"/>
-        <v>35.71</v>
+        <v>25.2</v>
       </c>
       <c r="AM18">
         <f t="shared" si="23"/>
-        <v>3.5710000000000002</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <f>E19*5</f>
-        <v>14.34</v>
+        <v>35.71</v>
       </c>
       <c r="E19">
-        <f>14.34/5</f>
-        <v>2.8679999999999999</v>
+        <f>35.71/5</f>
+        <v>7.1420000000000003</v>
       </c>
       <c r="F19">
-        <f>79.3/50</f>
-        <v>1.5859999999999999</v>
+        <f>35.71/10</f>
+        <v>3.5710000000000002</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="U19">
         <f t="shared" si="5"/>
@@ -3522,289 +3532,381 @@
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>14.34</v>
+        <v>35.71</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>2.8679999999999999</v>
+        <v>7.1420000000000003</v>
       </c>
       <c r="X19">
-        <f t="shared" ref="X19" si="38">IF(ISBLANK(F19),W19,F19)</f>
-        <v>1.5859999999999999</v>
+        <f t="shared" si="10"/>
+        <v>3.5710000000000002</v>
       </c>
       <c r="Y19">
-        <f t="shared" ref="Y19" si="39">IF(ISBLANK(G19),X19,G19)</f>
-        <v>1.5859999999999999</v>
+        <f t="shared" si="11"/>
+        <v>3.5710000000000002</v>
       </c>
       <c r="Z19">
-        <f t="shared" ref="Z19" si="40">IF(ISBLANK(H19),Y19,H19)</f>
-        <v>1.5859999999999999</v>
+        <f t="shared" si="12"/>
+        <v>3.5710000000000002</v>
       </c>
       <c r="AA19">
-        <f t="shared" ref="AA19" si="41">IF(ISBLANK(I19),Z19,I19)</f>
-        <v>1.5859999999999999</v>
+        <f t="shared" si="13"/>
+        <v>3.5710000000000002</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="37"/>
-        <v>1.5859999999999999</v>
+        <f t="shared" ref="AB19:AC20" si="54">IF(ISBLANK(J19),AA19,J19)</f>
+        <v>3.5710000000000002</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="37"/>
-        <v>1.5859999999999999</v>
+        <f t="shared" si="54"/>
+        <v>3.5710000000000002</v>
       </c>
       <c r="AE19">
         <f t="shared" si="15"/>
-        <v>14.34</v>
+        <v>35.71</v>
       </c>
       <c r="AF19">
         <f t="shared" si="16"/>
-        <v>2.8680000000000003</v>
+        <v>7.1420000000000003</v>
       </c>
       <c r="AG19">
         <f t="shared" si="17"/>
-        <v>1.5859999999999999</v>
+        <v>3.5710000000000002</v>
       </c>
       <c r="AH19">
         <f t="shared" si="18"/>
-        <v>1.5859999999999999</v>
+        <v>3.5710000000000002</v>
       </c>
       <c r="AI19">
         <f t="shared" si="19"/>
-        <v>1.5859999999999999</v>
+        <v>3.5710000000000002</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="20"/>
-        <v>1.5859999999999999</v>
+        <v>3.5710000000000002</v>
       </c>
       <c r="AK19">
         <f t="shared" si="21"/>
-        <v>7.9299999999999988</v>
+        <v>17.855</v>
       </c>
       <c r="AL19">
         <f t="shared" si="22"/>
-        <v>15.859999999999998</v>
+        <v>35.71</v>
       </c>
       <c r="AM19">
         <f t="shared" si="23"/>
-        <v>1.5859999999999999</v>
+        <v>3.5710000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>8.67</v>
+        <f>E20*5</f>
+        <v>14.34</v>
       </c>
       <c r="E20">
-        <f>$D20/E2</f>
-        <v>1.734</v>
+        <f>14.34/5</f>
+        <v>2.8679999999999999</v>
       </c>
       <c r="F20">
-        <f>$D20/F2</f>
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="G20">
-        <f>2*$D20/G2</f>
-        <v>0.69359999999999999</v>
-      </c>
-      <c r="H20">
-        <f>5*$D20/H2</f>
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I20">
-        <f>10*$D20/I2</f>
-        <v>0.86699999999999999</v>
+        <f>79.3/50</f>
+        <v>1.5859999999999999</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
       </c>
       <c r="U20">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="V20">
-        <f t="shared" ref="V20" si="42">D20</f>
-        <v>8.67</v>
+        <f t="shared" si="8"/>
+        <v>14.34</v>
       </c>
       <c r="W20">
-        <f t="shared" ref="W20" si="43">IF(ISBLANK(E20),V20,E20)</f>
-        <v>1.734</v>
+        <f t="shared" si="9"/>
+        <v>2.8679999999999999</v>
       </c>
       <c r="X20">
-        <f t="shared" ref="X20" si="44">IF(ISBLANK(F20),W20,F20)</f>
-        <v>0.86699999999999999</v>
+        <f t="shared" ref="X20" si="55">IF(ISBLANK(F20),W20,F20)</f>
+        <v>1.5859999999999999</v>
       </c>
       <c r="Y20">
-        <f t="shared" ref="Y20" si="45">IF(ISBLANK(G20),X20,G20)</f>
-        <v>0.69359999999999999</v>
+        <f t="shared" ref="Y20" si="56">IF(ISBLANK(G20),X20,G20)</f>
+        <v>1.5859999999999999</v>
       </c>
       <c r="Z20">
-        <f t="shared" ref="Z20" si="46">IF(ISBLANK(H20),Y20,H20)</f>
-        <v>0.86699999999999999</v>
+        <f t="shared" ref="Z20" si="57">IF(ISBLANK(H20),Y20,H20)</f>
+        <v>1.5859999999999999</v>
       </c>
       <c r="AA20">
-        <f t="shared" ref="AA20" si="47">IF(ISBLANK(I20),Z20,I20)</f>
-        <v>0.86699999999999999</v>
+        <f t="shared" ref="AA20" si="58">IF(ISBLANK(I20),Z20,I20)</f>
+        <v>1.5859999999999999</v>
       </c>
       <c r="AB20">
-        <f t="shared" ref="AB20" si="48">IF(ISBLANK(J20),AA20,J20)</f>
-        <v>0.86699999999999999</v>
+        <f t="shared" si="54"/>
+        <v>1.5859999999999999</v>
       </c>
       <c r="AC20">
-        <f t="shared" ref="AC20" si="49">IF(ISBLANK(K20),AB20,K20)</f>
-        <v>0.86699999999999999</v>
+        <f t="shared" si="54"/>
+        <v>1.5859999999999999</v>
       </c>
       <c r="AE20">
         <f t="shared" si="15"/>
-        <v>8.67</v>
+        <v>14.34</v>
       </c>
       <c r="AF20">
         <f t="shared" si="16"/>
-        <v>1.734</v>
+        <v>2.8680000000000003</v>
       </c>
       <c r="AG20">
         <f t="shared" si="17"/>
-        <v>0.86699999999999999</v>
+        <v>1.5859999999999999</v>
       </c>
       <c r="AH20">
         <f t="shared" si="18"/>
-        <v>0.69359999999999999</v>
+        <v>1.5859999999999999</v>
       </c>
       <c r="AI20">
         <f t="shared" si="19"/>
-        <v>0.86699999999999999</v>
+        <v>1.5859999999999999</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="20"/>
-        <v>0.86699999999999999</v>
+        <v>1.5859999999999999</v>
       </c>
       <c r="AK20">
         <f t="shared" si="21"/>
-        <v>4.335</v>
+        <v>7.9299999999999988</v>
       </c>
       <c r="AL20">
         <f t="shared" si="22"/>
+        <v>15.859999999999998</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="23"/>
+        <v>1.5859999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>8.67</v>
       </c>
-      <c r="AM20">
-        <f t="shared" ref="AM20" si="50">MIN(AE20:AL20)</f>
+      <c r="E21">
+        <f>$D21/E2</f>
+        <v>1.734</v>
+      </c>
+      <c r="F21">
+        <f>$D21/F2</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="G21">
+        <f>2*$D21/G2</f>
         <v>0.69359999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f>5*$D21/H2</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I21">
+        <f>10*$D21/I2</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="L21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ref="V21" si="59">D21</f>
+        <v>8.67</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ref="W21" si="60">IF(ISBLANK(E21),V21,E21)</f>
+        <v>1.734</v>
+      </c>
+      <c r="X21">
+        <f t="shared" ref="X21" si="61">IF(ISBLANK(F21),W21,F21)</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" ref="Y21" si="62">IF(ISBLANK(G21),X21,G21)</f>
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" ref="Z21" si="63">IF(ISBLANK(H21),Y21,H21)</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ref="AA21" si="64">IF(ISBLANK(I21),Z21,I21)</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ref="AB21" si="65">IF(ISBLANK(J21),AA21,J21)</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ref="AC21" si="66">IF(ISBLANK(K21),AB21,K21)</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="15"/>
+        <v>8.67</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="16"/>
+        <v>1.734</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="17"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="18"/>
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="19"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="20"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="21"/>
+        <v>4.335</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="22"/>
+        <v>8.67</v>
+      </c>
       <c r="AM21">
-        <f>SUM(AM3:AM20)</f>
-        <v>29.229300000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>180.82999999999998</v>
+        <f t="shared" ref="AM21" si="67">MIN(AE21:AL21)</f>
+        <v>0.69359999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM22">
+        <f>SUM(AM3:AM21)</f>
+        <v>29.297799999999999</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>58.201000000000008</v>
+        <v>180.82999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X27">
-        <f>X26+5</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y27">
-        <v>41.628499999999988</v>
+        <v>58.201000000000008</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X28">
-        <f t="shared" ref="X28:X45" si="51">X27+5</f>
-        <v>15</v>
+        <f>X27+5</f>
+        <v>10</v>
       </c>
       <c r="Y28">
-        <v>38.548333333333325</v>
+        <v>41.628499999999988</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X29">
-        <f t="shared" si="51"/>
-        <v>20</v>
+        <f t="shared" ref="X29:X46" si="68">X28+5</f>
+        <v>15</v>
       </c>
       <c r="Y29">
-        <v>36.639999999999993</v>
+        <v>38.548333333333325</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X30">
-        <f t="shared" si="51"/>
-        <v>25</v>
+        <f t="shared" si="68"/>
+        <v>20</v>
       </c>
       <c r="Y30">
-        <v>34.514600000000002</v>
+        <v>36.639999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X31">
-        <f t="shared" si="51"/>
-        <v>30</v>
+        <f t="shared" si="68"/>
+        <v>25</v>
       </c>
       <c r="Y31">
-        <v>34.448333333333323</v>
+        <v>34.514600000000002</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X32">
-        <f t="shared" si="51"/>
-        <v>35</v>
+        <f t="shared" si="68"/>
+        <v>30</v>
       </c>
       <c r="Y32">
-        <v>34.411285714285711</v>
+        <v>34.448333333333323</v>
       </c>
     </row>
     <row r="33" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X33">
-        <f t="shared" si="51"/>
-        <v>40</v>
+        <f t="shared" si="68"/>
+        <v>35</v>
       </c>
       <c r="Y33">
-        <v>34.246099999999998</v>
+        <v>34.411285714285711</v>
       </c>
     </row>
     <row r="34" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X34">
-        <f t="shared" si="51"/>
-        <v>45</v>
+        <f t="shared" si="68"/>
+        <v>40</v>
       </c>
       <c r="Y34">
-        <v>33.778599999999997</v>
+        <v>34.246099999999998</v>
       </c>
     </row>
     <row r="35" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X35">
-        <f t="shared" si="51"/>
-        <v>50</v>
+        <f t="shared" si="68"/>
+        <v>45</v>
       </c>
       <c r="Y35">
-        <v>33.260599999999997</v>
+        <v>33.778599999999997</v>
       </c>
     </row>
     <row r="36" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X36">
-        <f t="shared" si="51"/>
-        <v>55</v>
+        <f t="shared" si="68"/>
+        <v>50</v>
       </c>
       <c r="Y36">
         <v>33.260599999999997</v>
@@ -3812,8 +3914,8 @@
     </row>
     <row r="37" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X37">
-        <f t="shared" si="51"/>
-        <v>60</v>
+        <f t="shared" si="68"/>
+        <v>55</v>
       </c>
       <c r="Y37">
         <v>33.260599999999997</v>
@@ -3821,97 +3923,106 @@
     </row>
     <row r="38" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X38">
-        <f t="shared" si="51"/>
-        <v>65</v>
+        <f t="shared" si="68"/>
+        <v>60</v>
       </c>
       <c r="Y38">
-        <v>33.24213846153846</v>
+        <v>33.260599999999997</v>
       </c>
     </row>
     <row r="39" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X39">
-        <f t="shared" si="51"/>
-        <v>70</v>
+        <f t="shared" si="68"/>
+        <v>65</v>
       </c>
       <c r="Y39">
-        <v>33.21631428571429</v>
+        <v>33.24213846153846</v>
       </c>
     </row>
     <row r="40" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X40">
-        <f t="shared" si="51"/>
-        <v>75</v>
+        <f t="shared" si="68"/>
+        <v>70</v>
       </c>
       <c r="Y40">
-        <v>32.84859999999999</v>
+        <v>33.21631428571429</v>
       </c>
     </row>
     <row r="41" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X41">
-        <f t="shared" si="51"/>
-        <v>80</v>
+        <f t="shared" si="68"/>
+        <v>75</v>
       </c>
       <c r="Y41">
-        <v>32.520600000000002</v>
+        <v>32.84859999999999</v>
       </c>
     </row>
     <row r="42" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X42">
-        <f t="shared" si="51"/>
-        <v>85</v>
+        <f t="shared" si="68"/>
+        <v>80</v>
       </c>
       <c r="Y42">
-        <v>31.976341176470587</v>
+        <v>32.520600000000002</v>
       </c>
     </row>
     <row r="43" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X43">
-        <f t="shared" si="51"/>
-        <v>90</v>
+        <f t="shared" si="68"/>
+        <v>85</v>
       </c>
       <c r="Y43">
-        <v>31.163400000000003</v>
-      </c>
-      <c r="AB43">
-        <v>10</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>58</v>
+        <v>31.976341176470587</v>
       </c>
     </row>
     <row r="44" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X44">
-        <f t="shared" si="51"/>
-        <v>95</v>
+        <f t="shared" si="68"/>
+        <v>90</v>
       </c>
       <c r="Y44">
-        <v>30.18182105263158</v>
+        <v>31.163400000000003</v>
       </c>
       <c r="AB44">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AC44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X45">
-        <f t="shared" si="51"/>
+        <f t="shared" si="68"/>
+        <v>95</v>
+      </c>
+      <c r="Y45">
+        <v>30.18182105263158</v>
+      </c>
+      <c r="AB45">
+        <v>25</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="24:29" x14ac:dyDescent="0.25">
+      <c r="X46">
+        <f t="shared" si="68"/>
         <v>100</v>
       </c>
-      <c r="Y45">
+      <c r="Y46">
         <v>29.229300000000002</v>
       </c>
-      <c r="AB45">
+      <c r="AB46">
         <v>100</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AC46" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L19" r:id="rId1" xr:uid="{5FFCE730-EC69-449B-B296-FE242C459BF3}"/>
+    <hyperlink ref="L20" r:id="rId1" xr:uid="{5FFCE730-EC69-449B-B296-FE242C459BF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\EletronicEgg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36387D4-F9DA-4713-B951-5C7C4560D786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F65A84B-0671-49AC-A402-B00257EE9523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{CC748F4A-B77A-42D3-919B-40EFF9144FCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC748F4A-B77A-42D3-919B-40EFF9144FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>400 mAh Battery</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Qty/system</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>NCP15XH103F03RC</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
     <t>price per</t>
   </si>
   <si>
@@ -244,13 +238,31 @@
   </si>
   <si>
     <t>GRM155R61A225KE95D</t>
+  </si>
+  <si>
+    <t>System Qty:</t>
+  </si>
+  <si>
+    <t>Component Qty to Order</t>
+  </si>
+  <si>
+    <t>Component Qty/System</t>
+  </si>
+  <si>
+    <t>Cost/System</t>
+  </si>
+  <si>
+    <t>Alternate Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +270,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -279,12 +311,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +438,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BOM!$X$26:$X$46</c:f>
+              <c:f>BOM!$X$28:$X$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -471,7 +510,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BOM!$Y$26:$Y$46</c:f>
+              <c:f>BOM!$Y$28:$Y$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1411,13 +1450,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1743,941 +1782,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8EB424-57BA-4A49-86A1-3A232E6B3ACD}">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" t="s">
         <v>46</v>
-      </c>
-      <c r="V1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="8">
+        <f>AM24</f>
+        <v>41.483999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>500</v>
+      </c>
+      <c r="Q4">
+        <v>1000</v>
+      </c>
+      <c r="V4">
+        <f>J4</f>
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="W4">
+        <f>K4</f>
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="X4">
+        <f>L4</f>
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="Y4">
+        <f>M4</f>
         <v>25</v>
       </c>
-      <c r="H2">
+      <c r="Z4">
+        <f>N4</f>
         <v>50</v>
       </c>
-      <c r="I2">
+      <c r="AA4">
+        <f>O4</f>
         <v>100</v>
       </c>
-      <c r="J2">
+      <c r="AB4">
+        <f>P4</f>
         <v>500</v>
       </c>
-      <c r="K2">
+      <c r="AC4">
+        <f>Q4</f>
         <v>1000</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>100</v>
-      </c>
-      <c r="V2">
-        <f t="shared" ref="V2:AA2" si="0">D2</f>
+      <c r="AE4">
+        <f>V4</f>
         <v>1</v>
       </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AJ4" si="0">W4</f>
         <v>5</v>
       </c>
-      <c r="X2">
+      <c r="AG4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Y2">
+      <c r="AH4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Z2">
+      <c r="AI4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AA2">
+      <c r="AJ4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AC2" si="1">J2</f>
+      <c r="AK4">
+        <f t="shared" ref="AK4" si="1">AB4</f>
         <v>500</v>
       </c>
-      <c r="AC2">
-        <f t="shared" si="1"/>
+      <c r="AL4">
+        <f t="shared" ref="AL4" si="2">AC4</f>
         <v>1000</v>
       </c>
-      <c r="AE2">
-        <f>V2</f>
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AJ2" si="2">W2</f>
-        <v>5</v>
-      </c>
-      <c r="AG2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="AI2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="AJ2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2" si="3">AB2</f>
-        <v>500</v>
-      </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2" si="4">AC2</f>
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4.95</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U21" si="5">S$2*C3</f>
-        <v>100</v>
-      </c>
-      <c r="V3">
-        <f>D3</f>
-        <v>4.95</v>
-      </c>
-      <c r="W3">
-        <f>IF(ISBLANK(E3),V3,E3)</f>
-        <v>4.95</v>
-      </c>
-      <c r="X3">
-        <f>IF(ISBLANK(F3),W3,F3)</f>
-        <v>4.95</v>
-      </c>
-      <c r="Y3">
-        <f>IF(ISBLANK(G3),X3,G3)</f>
-        <v>4.95</v>
-      </c>
-      <c r="Z3">
-        <f>IF(ISBLANK(H3),Y3,H3)</f>
-        <v>4.95</v>
-      </c>
-      <c r="AA3">
-        <f>IF(ISBLANK(I3),Z3,I3)</f>
-        <v>4.95</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AC3" si="6">IF(ISBLANK(J3),AA3,J3)</f>
-        <v>4.95</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="6"/>
-        <v>4.95</v>
-      </c>
-      <c r="AE3">
-        <f>V3*MAX($U3,AE$2)/$S$2</f>
-        <v>4.95</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AL3" si="7">W3*MAX($U3,AF$2)/$S$2</f>
-        <v>4.95</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" si="7"/>
-        <v>4.95</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="7"/>
-        <v>4.95</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="7"/>
-        <v>4.95</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="7"/>
-        <v>4.95</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="7"/>
-        <v>24.75</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="7"/>
-        <v>49.5</v>
-      </c>
-      <c r="AM3">
-        <f>MIN(AE3:AL3)</f>
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>6.3</v>
-      </c>
-      <c r="F4">
-        <v>5.25</v>
-      </c>
-      <c r="I4">
-        <v>3.68</v>
-      </c>
-      <c r="J4">
-        <v>3.0449999999999999</v>
-      </c>
-      <c r="K4">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V20" si="8">D4</f>
-        <v>6.3</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W20" si="9">IF(ISBLANK(E4),V4,E4)</f>
-        <v>6.3</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X19" si="10">IF(ISBLANK(F4),W4,F4)</f>
-        <v>5.25</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:Y19" si="11">IF(ISBLANK(G4),X4,G4)</f>
-        <v>5.25</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" ref="Z4:Z19" si="12">IF(ISBLANK(H4),Y4,H4)</f>
-        <v>5.25</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" ref="AA4:AA19" si="13">IF(ISBLANK(I4),Z4,I4)</f>
-        <v>3.68</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" ref="AB4:AC4" si="14">IF(ISBLANK(J4),AA4,J4)</f>
-        <v>3.0449999999999999</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="14"/>
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" ref="AE4:AE21" si="15">V4*MAX($U4,AE$2)/$S$2</f>
-        <v>6.3</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" ref="AF4:AF21" si="16">W4*MAX($U4,AF$2)/$S$2</f>
-        <v>6.3</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" ref="AG4:AG21" si="17">X4*MAX($U4,AG$2)/$S$2</f>
-        <v>5.25</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" ref="AH4:AH21" si="18">Y4*MAX($U4,AH$2)/$S$2</f>
-        <v>5.25</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AI21" si="19">Z4*MAX($U4,AI$2)/$S$2</f>
-        <v>5.25</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ21" si="20">AA4*MAX($U4,AJ$2)/$S$2</f>
-        <v>3.68</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" ref="AK4:AK21" si="21">AB4*MAX($U4,AK$2)/$S$2</f>
-        <v>15.225</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" ref="AL4:AL21" si="22">AC4*MAX($U4,AL$2)/$S$2</f>
-        <v>27.93</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" ref="AM4:AM20" si="23">MIN(AE4:AL4)</f>
-        <v>3.68</v>
+      <c r="AM4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1.37</v>
-      </c>
-      <c r="F5">
-        <v>1.25</v>
-      </c>
-      <c r="G5">
-        <v>1.69</v>
-      </c>
-      <c r="H5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I5">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.88936000000000004</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" t="s">
-        <v>24</v>
+      <c r="D5" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE5:AL5,CONCATENATE("=",AM5))</f>
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>4.95</v>
       </c>
       <c r="U5">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>B$1*C5</f>
+        <v>10</v>
       </c>
       <c r="V5">
-        <f t="shared" si="8"/>
-        <v>1.37</v>
+        <f>J5</f>
+        <v>4.95</v>
       </c>
       <c r="W5">
-        <f t="shared" si="9"/>
-        <v>1.37</v>
+        <f>IF(ISBLANK(K5),V5,K5)</f>
+        <v>4.95</v>
       </c>
       <c r="X5">
-        <f t="shared" si="10"/>
-        <v>1.25</v>
+        <f>IF(ISBLANK(L5),W5,L5)</f>
+        <v>4.95</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="11"/>
-        <v>1.69</v>
+        <f>IF(ISBLANK(M5),X5,M5)</f>
+        <v>4.95</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="12"/>
-        <v>1.1200000000000001</v>
+        <f>IF(ISBLANK(N5),Y5,N5)</f>
+        <v>4.95</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="13"/>
-        <v>1.0669999999999999</v>
+        <f>IF(ISBLANK(O5),Z5,O5)</f>
+        <v>4.95</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AC5" si="24">IF(ISBLANK(J5),AA5,J5)</f>
-        <v>0.88936000000000004</v>
+        <f>IF(ISBLANK(P5),AA5,P5)</f>
+        <v>4.95</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="24"/>
-        <v>0.88936000000000004</v>
+        <f>IF(ISBLANK(Q5),AB5,Q5)</f>
+        <v>4.95</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="15"/>
-        <v>1.37</v>
+        <f>V5*MAX($U5,AE$4)/$B$1</f>
+        <v>4.95</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="16"/>
-        <v>1.37</v>
+        <f>W5*MAX($U5,AF$4)/$B$1</f>
+        <v>4.95</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="17"/>
-        <v>1.25</v>
+        <f>X5*MAX($U5,AG$4)/$B$1</f>
+        <v>4.95</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="18"/>
-        <v>1.69</v>
+        <f>Y5*MAX($U5,AH$4)/$B$1</f>
+        <v>12.375</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="19"/>
-        <v>1.1200000000000001</v>
+        <f>Z5*MAX($U5,AI$4)/$B$1</f>
+        <v>24.75</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="20"/>
-        <v>1.0669999999999999</v>
+        <f>AA5*MAX($U5,AJ$4)/$B$1</f>
+        <v>49.5</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="21"/>
-        <v>4.4467999999999996</v>
+        <f>AB5*MAX($U5,AK$4)/$B$1</f>
+        <v>247.5</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="22"/>
-        <v>8.8935999999999993</v>
+        <f>AC5*MAX($U5,AL$4)/$B$1</f>
+        <v>495</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="23"/>
-        <v>1.0669999999999999</v>
+        <f>MIN(AE5:AL5)</f>
+        <v>4.95</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>7.34</v>
-      </c>
-      <c r="F6">
-        <v>6.63</v>
-      </c>
-      <c r="G6">
-        <v>6.34</v>
-      </c>
-      <c r="I6">
-        <v>5.49</v>
+      <c r="D6" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE6:AL6,CONCATENATE("=",AM6))</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>4.7825199999999999</v>
-      </c>
-      <c r="K6">
-        <v>4.1654299999999997</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
+        <v>6.3</v>
+      </c>
+      <c r="L6">
+        <v>5.25</v>
+      </c>
+      <c r="O6">
+        <v>3.68</v>
+      </c>
+      <c r="P6">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>2.7930000000000001</v>
       </c>
       <c r="U6">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>B$1*C6</f>
+        <v>10</v>
       </c>
       <c r="V6">
-        <f t="shared" si="8"/>
-        <v>7.34</v>
+        <f>J6</f>
+        <v>6.3</v>
       </c>
       <c r="W6">
-        <f t="shared" si="9"/>
-        <v>7.34</v>
+        <f>IF(ISBLANK(K6),V6,K6)</f>
+        <v>6.3</v>
       </c>
       <c r="X6">
-        <f t="shared" si="10"/>
-        <v>6.63</v>
+        <f>IF(ISBLANK(L6),W6,L6)</f>
+        <v>5.25</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="11"/>
-        <v>6.34</v>
+        <f>IF(ISBLANK(M6),X6,M6)</f>
+        <v>5.25</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="12"/>
-        <v>6.34</v>
+        <f>IF(ISBLANK(N6),Y6,N6)</f>
+        <v>5.25</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="13"/>
-        <v>5.49</v>
+        <f>IF(ISBLANK(O6),Z6,O6)</f>
+        <v>3.68</v>
       </c>
       <c r="AB6">
-        <f t="shared" ref="AB6:AC6" si="25">IF(ISBLANK(J6),AA6,J6)</f>
-        <v>4.7825199999999999</v>
+        <f>IF(ISBLANK(P6),AA6,P6)</f>
+        <v>3.0449999999999999</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="25"/>
-        <v>4.1654299999999997</v>
+        <f>IF(ISBLANK(Q6),AB6,Q6)</f>
+        <v>2.7930000000000001</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="15"/>
-        <v>7.34</v>
+        <f>V6*MAX($U6,AE$4)/$B$1</f>
+        <v>6.3</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="16"/>
-        <v>7.34</v>
+        <f>W6*MAX($U6,AF$4)/$B$1</f>
+        <v>6.3</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="17"/>
-        <v>6.63</v>
+        <f>X6*MAX($U6,AG$4)/$B$1</f>
+        <v>5.25</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="18"/>
-        <v>6.34</v>
+        <f>Y6*MAX($U6,AH$4)/$B$1</f>
+        <v>13.125</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="19"/>
-        <v>6.34</v>
+        <f>Z6*MAX($U6,AI$4)/$B$1</f>
+        <v>26.25</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="20"/>
-        <v>5.49</v>
+        <f>AA6*MAX($U6,AJ$4)/$B$1</f>
+        <v>36.799999999999997</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="21"/>
-        <v>23.912599999999998</v>
+        <f>AB6*MAX($U6,AK$4)/$B$1</f>
+        <v>152.25</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="22"/>
-        <v>41.654299999999992</v>
+        <f>AC6*MAX($U6,AL$4)/$B$1</f>
+        <v>279.3</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="23"/>
-        <v>5.49</v>
+        <f t="shared" ref="AM6:AM22" si="3">MIN(AE6:AL6)</f>
+        <v>5.25</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>3.32</v>
-      </c>
-      <c r="G7">
-        <v>3.02</v>
-      </c>
-      <c r="I7">
-        <v>2.73</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="D7" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE7:AL7,CONCATENATE("=",AM7))</f>
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="J7">
+        <v>1.37</v>
+      </c>
+      <c r="L7">
+        <v>1.25</v>
+      </c>
+      <c r="M7">
+        <v>1.69</v>
+      </c>
+      <c r="N7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O7">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.88936000000000004</v>
+      </c>
+      <c r="Q7" s="1"/>
       <c r="U7">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>B$1*C7</f>
+        <v>10</v>
       </c>
       <c r="V7">
-        <f t="shared" si="8"/>
-        <v>3.32</v>
+        <f>J7</f>
+        <v>1.37</v>
       </c>
       <c r="W7">
-        <f t="shared" si="9"/>
-        <v>3.32</v>
+        <f>IF(ISBLANK(K7),V7,K7)</f>
+        <v>1.37</v>
       </c>
       <c r="X7">
-        <f t="shared" si="10"/>
-        <v>3.32</v>
+        <f>IF(ISBLANK(L7),W7,L7)</f>
+        <v>1.25</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="11"/>
-        <v>3.02</v>
+        <f>IF(ISBLANK(M7),X7,M7)</f>
+        <v>1.69</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="12"/>
-        <v>3.02</v>
+        <f>IF(ISBLANK(N7),Y7,N7)</f>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="13"/>
-        <v>2.73</v>
+        <f>IF(ISBLANK(O7),Z7,O7)</f>
+        <v>1.0669999999999999</v>
       </c>
       <c r="AB7">
-        <f t="shared" ref="AB7:AC7" si="26">IF(ISBLANK(J7),AA7,J7)</f>
-        <v>2.73</v>
+        <f>IF(ISBLANK(P7),AA7,P7)</f>
+        <v>0.88936000000000004</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="26"/>
-        <v>2.73</v>
+        <f>IF(ISBLANK(Q7),AB7,Q7)</f>
+        <v>0.88936000000000004</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="15"/>
-        <v>3.32</v>
+        <f>V7*MAX($U7,AE$4)/$B$1</f>
+        <v>1.37</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="16"/>
-        <v>3.32</v>
+        <f>W7*MAX($U7,AF$4)/$B$1</f>
+        <v>1.37</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="17"/>
-        <v>3.32</v>
+        <f>X7*MAX($U7,AG$4)/$B$1</f>
+        <v>1.25</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="18"/>
-        <v>3.02</v>
+        <f>Y7*MAX($U7,AH$4)/$B$1</f>
+        <v>4.2249999999999996</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="19"/>
-        <v>3.02</v>
+        <f>Z7*MAX($U7,AI$4)/$B$1</f>
+        <v>5.6000000000000005</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="20"/>
-        <v>2.73</v>
+        <f>AA7*MAX($U7,AJ$4)/$B$1</f>
+        <v>10.669999999999998</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="21"/>
-        <v>13.65</v>
+        <f>AB7*MAX($U7,AK$4)/$B$1</f>
+        <v>44.468000000000004</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="22"/>
-        <v>27.3</v>
+        <f>AC7*MAX($U7,AL$4)/$B$1</f>
+        <v>88.936000000000007</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="23"/>
-        <v>2.73</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>3.31</v>
-      </c>
-      <c r="F8">
-        <v>2.98</v>
-      </c>
-      <c r="G8">
-        <v>2.81</v>
-      </c>
-      <c r="I8">
-        <v>2.31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
+      <c r="D8" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE8:AL8,CONCATENATE("=",AM8))</f>
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>7.34</v>
+      </c>
+      <c r="L8">
+        <v>6.63</v>
+      </c>
+      <c r="M8">
+        <v>6.34</v>
+      </c>
+      <c r="O8">
+        <v>5.49</v>
+      </c>
+      <c r="P8">
+        <v>4.7825199999999999</v>
+      </c>
+      <c r="Q8">
+        <v>4.1654299999999997</v>
       </c>
       <c r="U8">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>B$1*C8</f>
+        <v>10</v>
       </c>
       <c r="V8">
-        <f t="shared" si="8"/>
-        <v>3.31</v>
+        <f>J8</f>
+        <v>7.34</v>
       </c>
       <c r="W8">
-        <f t="shared" si="9"/>
-        <v>3.31</v>
+        <f>IF(ISBLANK(K8),V8,K8)</f>
+        <v>7.34</v>
       </c>
       <c r="X8">
-        <f t="shared" si="10"/>
-        <v>2.98</v>
+        <f>IF(ISBLANK(L8),W8,L8)</f>
+        <v>6.63</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="11"/>
-        <v>2.81</v>
+        <f>IF(ISBLANK(M8),X8,M8)</f>
+        <v>6.34</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="12"/>
-        <v>2.81</v>
+        <f>IF(ISBLANK(N8),Y8,N8)</f>
+        <v>6.34</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="13"/>
-        <v>2.31</v>
+        <f>IF(ISBLANK(O8),Z8,O8)</f>
+        <v>5.49</v>
       </c>
       <c r="AB8">
-        <f t="shared" ref="AB8:AC8" si="27">IF(ISBLANK(J8),AA8,J8)</f>
-        <v>2.31</v>
+        <f>IF(ISBLANK(P8),AA8,P8)</f>
+        <v>4.7825199999999999</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="27"/>
-        <v>2.31</v>
+        <f>IF(ISBLANK(Q8),AB8,Q8)</f>
+        <v>4.1654299999999997</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="15"/>
-        <v>3.31</v>
+        <f>V8*MAX($U8,AE$4)/$B$1</f>
+        <v>7.3400000000000007</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="16"/>
-        <v>3.31</v>
+        <f>W8*MAX($U8,AF$4)/$B$1</f>
+        <v>7.3400000000000007</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="17"/>
-        <v>2.98</v>
+        <f>X8*MAX($U8,AG$4)/$B$1</f>
+        <v>6.63</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="18"/>
-        <v>2.81</v>
+        <f>Y8*MAX($U8,AH$4)/$B$1</f>
+        <v>15.85</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="19"/>
-        <v>2.81</v>
+        <f>Z8*MAX($U8,AI$4)/$B$1</f>
+        <v>31.7</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="20"/>
-        <v>2.31</v>
+        <f>AA8*MAX($U8,AJ$4)/$B$1</f>
+        <v>54.9</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="21"/>
-        <v>11.55</v>
+        <f>AB8*MAX($U8,AK$4)/$B$1</f>
+        <v>239.12599999999998</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="22"/>
-        <v>23.1</v>
+        <f>AC8*MAX($U8,AL$4)/$B$1</f>
+        <v>416.54299999999995</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="23"/>
-        <v>2.31</v>
+        <f t="shared" si="3"/>
+        <v>6.63</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="F9">
-        <v>4.7E-2</v>
-      </c>
-      <c r="I9">
-        <v>2.1000000000000001E-2</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE9:AL9,CONCATENATE("=",AM9))</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="J9">
-        <v>1.502E-2</v>
-      </c>
-      <c r="K9">
-        <v>1.18E-2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
+        <v>3.32</v>
+      </c>
+      <c r="M9">
+        <v>3.02</v>
+      </c>
+      <c r="O9">
+        <v>2.73</v>
       </c>
       <c r="U9">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f>B$1*C9</f>
+        <v>10</v>
       </c>
       <c r="V9">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
+        <f>J9</f>
+        <v>3.32</v>
       </c>
       <c r="W9">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <f>IF(ISBLANK(K9),V9,K9)</f>
+        <v>3.32</v>
       </c>
       <c r="X9">
-        <f t="shared" si="10"/>
-        <v>4.7E-2</v>
+        <f>IF(ISBLANK(L9),W9,L9)</f>
+        <v>3.32</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="11"/>
-        <v>4.7E-2</v>
+        <f>IF(ISBLANK(M9),X9,M9)</f>
+        <v>3.02</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="12"/>
-        <v>4.7E-2</v>
+        <f>IF(ISBLANK(N9),Y9,N9)</f>
+        <v>3.02</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="13"/>
-        <v>2.1000000000000001E-2</v>
+        <f>IF(ISBLANK(O9),Z9,O9)</f>
+        <v>2.73</v>
       </c>
       <c r="AB9">
-        <f t="shared" ref="AB9:AC9" si="28">IF(ISBLANK(J9),AA9,J9)</f>
-        <v>1.502E-2</v>
+        <f>IF(ISBLANK(P9),AA9,P9)</f>
+        <v>2.73</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="28"/>
-        <v>1.18E-2</v>
+        <f>IF(ISBLANK(Q9),AB9,Q9)</f>
+        <v>2.73</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="15"/>
-        <v>0.2</v>
+        <f>V9*MAX($U9,AE$4)/$B$1</f>
+        <v>3.3199999999999994</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
+        <f>W9*MAX($U9,AF$4)/$B$1</f>
+        <v>3.3199999999999994</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="17"/>
-        <v>9.4E-2</v>
+        <f>X9*MAX($U9,AG$4)/$B$1</f>
+        <v>3.3199999999999994</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="18"/>
-        <v>9.4E-2</v>
+        <f>Y9*MAX($U9,AH$4)/$B$1</f>
+        <v>7.55</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="19"/>
-        <v>9.4E-2</v>
+        <f>Z9*MAX($U9,AI$4)/$B$1</f>
+        <v>15.1</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="20"/>
-        <v>4.2000000000000003E-2</v>
+        <f>AA9*MAX($U9,AJ$4)/$B$1</f>
+        <v>27.3</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="21"/>
-        <v>7.51E-2</v>
+        <f>AB9*MAX($U9,AK$4)/$B$1</f>
+        <v>136.5</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="22"/>
-        <v>0.11799999999999999</v>
+        <f>AC9*MAX($U9,AL$4)/$B$1</f>
+        <v>273</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="23"/>
-        <v>4.2000000000000003E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.3199999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>68</v>
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0.12</v>
-      </c>
-      <c r="F10">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I10">
-        <v>4.1399999999999999E-2</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE10:AL10,CONCATENATE("=",AM10))</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="J10">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="K10">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
+        <v>3.31</v>
+      </c>
+      <c r="L10">
+        <v>2.98</v>
+      </c>
+      <c r="M10">
+        <v>2.81</v>
+      </c>
+      <c r="O10">
+        <v>2.31</v>
       </c>
       <c r="U10">
-        <f t="shared" si="5"/>
-        <v>300</v>
+        <f>B$1*C10</f>
+        <v>10</v>
       </c>
       <c r="V10">
-        <f t="shared" ref="V10" si="29">D10</f>
-        <v>0.12</v>
+        <f>J10</f>
+        <v>3.31</v>
       </c>
       <c r="W10">
-        <f t="shared" ref="W10" si="30">IF(ISBLANK(E10),V10,E10)</f>
-        <v>0.12</v>
+        <f>IF(ISBLANK(K10),V10,K10)</f>
+        <v>3.31</v>
       </c>
       <c r="X10">
-        <f t="shared" ref="X10" si="31">IF(ISBLANK(F10),W10,F10)</f>
-        <v>8.7999999999999995E-2</v>
+        <f>IF(ISBLANK(L10),W10,L10)</f>
+        <v>2.98</v>
       </c>
       <c r="Y10">
-        <f t="shared" ref="Y10" si="32">IF(ISBLANK(G10),X10,G10)</f>
-        <v>8.7999999999999995E-2</v>
+        <f>IF(ISBLANK(M10),X10,M10)</f>
+        <v>2.81</v>
       </c>
       <c r="Z10">
-        <f t="shared" ref="Z10" si="33">IF(ISBLANK(H10),Y10,H10)</f>
-        <v>8.7999999999999995E-2</v>
+        <f>IF(ISBLANK(N10),Y10,N10)</f>
+        <v>2.81</v>
       </c>
       <c r="AA10">
-        <f t="shared" ref="AA10" si="34">IF(ISBLANK(I10),Z10,I10)</f>
-        <v>4.1399999999999999E-2</v>
+        <f>IF(ISBLANK(O10),Z10,O10)</f>
+        <v>2.31</v>
       </c>
       <c r="AB10">
-        <f t="shared" ref="AB10" si="35">IF(ISBLANK(J10),AA10,J10)</f>
-        <v>2.9000000000000001E-2</v>
+        <f>IF(ISBLANK(P10),AA10,P10)</f>
+        <v>2.31</v>
       </c>
       <c r="AC10">
-        <f t="shared" ref="AC10" si="36">IF(ISBLANK(K10),AB10,K10)</f>
-        <v>2.0500000000000001E-2</v>
+        <f>IF(ISBLANK(Q10),AB10,Q10)</f>
+        <v>2.31</v>
       </c>
       <c r="AE10">
-        <f t="shared" ref="AE10" si="37">V10*MAX($U10,AE$2)/$S$2</f>
-        <v>0.36</v>
+        <f>V10*MAX($U10,AE$4)/$B$1</f>
+        <v>3.31</v>
       </c>
       <c r="AF10">
-        <f t="shared" ref="AF10" si="38">W10*MAX($U10,AF$2)/$S$2</f>
-        <v>0.36</v>
+        <f>W10*MAX($U10,AF$4)/$B$1</f>
+        <v>3.31</v>
       </c>
       <c r="AG10">
-        <f t="shared" ref="AG10" si="39">X10*MAX($U10,AG$2)/$S$2</f>
-        <v>0.26400000000000001</v>
+        <f>X10*MAX($U10,AG$4)/$B$1</f>
+        <v>2.98</v>
       </c>
       <c r="AH10">
-        <f t="shared" ref="AH10" si="40">Y10*MAX($U10,AH$2)/$S$2</f>
-        <v>0.26400000000000001</v>
+        <f>Y10*MAX($U10,AH$4)/$B$1</f>
+        <v>7.0250000000000004</v>
       </c>
       <c r="AI10">
-        <f t="shared" ref="AI10" si="41">Z10*MAX($U10,AI$2)/$S$2</f>
-        <v>0.26400000000000001</v>
+        <f>Z10*MAX($U10,AI$4)/$B$1</f>
+        <v>14.05</v>
       </c>
       <c r="AJ10">
-        <f t="shared" ref="AJ10" si="42">AA10*MAX($U10,AJ$2)/$S$2</f>
-        <v>0.1242</v>
+        <f>AA10*MAX($U10,AJ$4)/$B$1</f>
+        <v>23.1</v>
       </c>
       <c r="AK10">
-        <f t="shared" ref="AK10" si="43">AB10*MAX($U10,AK$2)/$S$2</f>
-        <v>0.14499999999999999</v>
+        <f>AB10*MAX($U10,AK$4)/$B$1</f>
+        <v>115.5</v>
       </c>
       <c r="AL10">
-        <f t="shared" ref="AL10" si="44">AC10*MAX($U10,AL$2)/$S$2</f>
-        <v>0.20499999999999999</v>
+        <f>AC10*MAX($U10,AL$4)/$B$1</f>
+        <v>231</v>
       </c>
       <c r="AM10">
-        <f t="shared" ref="AM10" si="45">MIN(AE10:AL10)</f>
-        <v>0.1242</v>
+        <f t="shared" si="3"/>
+        <v>2.98</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -2685,918 +2570,949 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>0.18</v>
-      </c>
-      <c r="F11">
-        <v>0.121</v>
-      </c>
-      <c r="I11">
-        <v>6.0999999999999999E-2</v>
+      <c r="D11" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE11:AL11,CONCATENATE("=",AM11))</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="J11">
-        <v>4.2040000000000001E-2</v>
-      </c>
-      <c r="K11">
-        <v>3.7190000000000001E-2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>62</v>
+        <v>0.1</v>
+      </c>
+      <c r="L11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="P11">
+        <v>1.502E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.18E-2</v>
       </c>
       <c r="U11">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f>B$1*C11</f>
+        <v>20</v>
       </c>
       <c r="V11">
-        <f t="shared" si="8"/>
-        <v>0.18</v>
+        <f>J11</f>
+        <v>0.1</v>
       </c>
       <c r="W11">
-        <f t="shared" si="9"/>
-        <v>0.18</v>
+        <f>IF(ISBLANK(K11),V11,K11)</f>
+        <v>0.1</v>
       </c>
       <c r="X11">
-        <f t="shared" si="10"/>
-        <v>0.121</v>
+        <f>IF(ISBLANK(L11),W11,L11)</f>
+        <v>4.7E-2</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="11"/>
-        <v>0.121</v>
+        <f>IF(ISBLANK(M11),X11,M11)</f>
+        <v>4.7E-2</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="12"/>
-        <v>0.121</v>
+        <f>IF(ISBLANK(N11),Y11,N11)</f>
+        <v>4.7E-2</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="13"/>
-        <v>6.0999999999999999E-2</v>
+        <f>IF(ISBLANK(O11),Z11,O11)</f>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AB11">
-        <f t="shared" ref="AB11:AC11" si="46">IF(ISBLANK(J11),AA11,J11)</f>
-        <v>4.2040000000000001E-2</v>
+        <f>IF(ISBLANK(P11),AA11,P11)</f>
+        <v>1.502E-2</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="46"/>
-        <v>3.7190000000000001E-2</v>
+        <f>IF(ISBLANK(Q11),AB11,Q11)</f>
+        <v>1.18E-2</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="15"/>
+        <f>V11*MAX($U11,AE$4)/$B$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AF11">
+        <f>W11*MAX($U11,AF$4)/$B$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AG11">
+        <f>X11*MAX($U11,AG$4)/$B$1</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="AH11">
+        <f>Y11*MAX($U11,AH$4)/$B$1</f>
+        <v>0.11750000000000001</v>
+      </c>
+      <c r="AI11">
+        <f>Z11*MAX($U11,AI$4)/$B$1</f>
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="AJ11">
+        <f>AA11*MAX($U11,AJ$4)/$B$1</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="AK11">
+        <f>AB11*MAX($U11,AK$4)/$B$1</f>
+        <v>0.751</v>
+      </c>
+      <c r="AL11">
+        <f>AC11*MAX($U11,AL$4)/$B$1</f>
+        <v>1.18</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="3"/>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE12:AL12,CONCATENATE("=",AM12))</f>
+        <v>25</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12">
+        <v>0.12</v>
+      </c>
+      <c r="L12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="O12">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="P12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="U12">
+        <f>B$1*C12</f>
+        <v>30</v>
+      </c>
+      <c r="V12">
+        <f>J12</f>
+        <v>0.12</v>
+      </c>
+      <c r="W12">
+        <f>IF(ISBLANK(K12),V12,K12)</f>
+        <v>0.12</v>
+      </c>
+      <c r="X12">
+        <f>IF(ISBLANK(L12),W12,L12)</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Y12">
+        <f>IF(ISBLANK(M12),X12,M12)</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Z12">
+        <f>IF(ISBLANK(N12),Y12,N12)</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AA12">
+        <f>IF(ISBLANK(O12),Z12,O12)</f>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="AB12">
+        <f>IF(ISBLANK(P12),AA12,P12)</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AC12">
+        <f>IF(ISBLANK(Q12),AB12,Q12)</f>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="AE12">
+        <f>V12*MAX($U12,AE$4)/$B$1</f>
         <v>0.36</v>
       </c>
-      <c r="AF11">
-        <f t="shared" si="16"/>
+      <c r="AF12">
+        <f>W12*MAX($U12,AF$4)/$B$1</f>
         <v>0.36</v>
       </c>
-      <c r="AG11">
-        <f t="shared" si="17"/>
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="18"/>
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="19"/>
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="20"/>
-        <v>0.122</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="21"/>
-        <v>0.2102</v>
-      </c>
-      <c r="AL11">
-        <f t="shared" si="22"/>
-        <v>0.37189999999999995</v>
-      </c>
-      <c r="AM11">
-        <f t="shared" si="23"/>
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
-      </c>
-      <c r="F12">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I12">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="J12">
-        <v>7.6600000000000001E-3</v>
-      </c>
-      <c r="K12">
-        <v>6.0200000000000002E-3</v>
-      </c>
-      <c r="L12" t="s">
-        <v>63</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="10"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="11"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="12"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="13"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" ref="AB12:AC12" si="47">IF(ISBLANK(J12),AA12,J12)</f>
-        <v>7.6600000000000001E-3</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="47"/>
-        <v>6.0200000000000002E-3</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="15"/>
-        <v>0.4</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="16"/>
-        <v>0.4</v>
-      </c>
       <c r="AG12">
-        <f t="shared" si="17"/>
-        <v>9.6000000000000002E-2</v>
+        <f>X12*MAX($U12,AG$4)/$B$1</f>
+        <v>0.26399999999999996</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="18"/>
-        <v>9.6000000000000002E-2</v>
+        <f>Y12*MAX($U12,AH$4)/$B$1</f>
+        <v>0.26399999999999996</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="19"/>
-        <v>9.6000000000000002E-2</v>
+        <f>Z12*MAX($U12,AI$4)/$B$1</f>
+        <v>0.43999999999999995</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="20"/>
-        <v>4.3999999999999997E-2</v>
+        <f>AA12*MAX($U12,AJ$4)/$B$1</f>
+        <v>0.41399999999999998</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="21"/>
-        <v>3.8300000000000001E-2</v>
+        <f>AB12*MAX($U12,AK$4)/$B$1</f>
+        <v>1.45</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="22"/>
-        <v>6.0200000000000004E-2</v>
+        <f>AC12*MAX($U12,AL$4)/$B$1</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="23"/>
-        <v>3.8300000000000001E-2</v>
+        <f t="shared" ref="AM12" si="4">MIN(AE12:AL12)</f>
+        <v>0.26399999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.13</v>
-      </c>
-      <c r="I13">
-        <v>8.5999999999999993E-2</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE13:AL13,CONCATENATE("=",AM13))</f>
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J13">
-        <v>7.1879999999999999E-2</v>
-      </c>
-      <c r="K13">
-        <v>6.0380000000000003E-2</v>
-      </c>
-      <c r="L13" t="s">
-        <v>64</v>
+        <v>0.18</v>
+      </c>
+      <c r="L13">
+        <v>0.121</v>
+      </c>
+      <c r="O13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="P13">
+        <v>4.2040000000000001E-2</v>
+      </c>
+      <c r="Q13">
+        <v>3.7190000000000001E-2</v>
       </c>
       <c r="U13">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>B$1*C13</f>
+        <v>20</v>
       </c>
       <c r="V13">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
+        <f>J13</f>
+        <v>0.18</v>
       </c>
       <c r="W13">
-        <f t="shared" si="9"/>
-        <v>0.14000000000000001</v>
+        <f>IF(ISBLANK(K13),V13,K13)</f>
+        <v>0.18</v>
       </c>
       <c r="X13">
-        <f t="shared" si="10"/>
-        <v>0.13</v>
+        <f>IF(ISBLANK(L13),W13,L13)</f>
+        <v>0.121</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="11"/>
-        <v>0.13</v>
+        <f>IF(ISBLANK(M13),X13,M13)</f>
+        <v>0.121</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="12"/>
-        <v>0.13</v>
+        <f>IF(ISBLANK(N13),Y13,N13)</f>
+        <v>0.121</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="13"/>
-        <v>8.5999999999999993E-2</v>
+        <f>IF(ISBLANK(O13),Z13,O13)</f>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="AB13">
-        <f t="shared" ref="AB13:AC13" si="48">IF(ISBLANK(J13),AA13,J13)</f>
-        <v>7.1879999999999999E-2</v>
+        <f>IF(ISBLANK(P13),AA13,P13)</f>
+        <v>4.2040000000000001E-2</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="48"/>
-        <v>6.0380000000000003E-2</v>
+        <f>IF(ISBLANK(Q13),AB13,Q13)</f>
+        <v>3.7190000000000001E-2</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="15"/>
-        <v>0.14000000000000001</v>
+        <f>V13*MAX($U13,AE$4)/$B$1</f>
+        <v>0.36</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="16"/>
-        <v>0.14000000000000001</v>
+        <f>W13*MAX($U13,AF$4)/$B$1</f>
+        <v>0.36</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="17"/>
-        <v>0.13</v>
+        <f>X13*MAX($U13,AG$4)/$B$1</f>
+        <v>0.24199999999999999</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="18"/>
-        <v>0.13</v>
+        <f>Y13*MAX($U13,AH$4)/$B$1</f>
+        <v>0.30249999999999999</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="19"/>
-        <v>0.13</v>
+        <f>Z13*MAX($U13,AI$4)/$B$1</f>
+        <v>0.60499999999999998</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="20"/>
-        <v>8.5999999999999993E-2</v>
+        <f>AA13*MAX($U13,AJ$4)/$B$1</f>
+        <v>0.61</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="21"/>
-        <v>0.3594</v>
+        <f>AB13*MAX($U13,AK$4)/$B$1</f>
+        <v>2.1019999999999999</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="22"/>
-        <v>0.6038</v>
+        <f>AC13*MAX($U13,AL$4)/$B$1</f>
+        <v>3.7189999999999999</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="23"/>
-        <v>8.5999999999999993E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.24199999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE14:AL14,CONCATENATE("=",AM14))</f>
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14">
         <v>0.1</v>
       </c>
-      <c r="F14">
-        <v>1.6E-2</v>
-      </c>
-      <c r="I14">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="K14">
-        <v>2.8900000000000002E-3</v>
-      </c>
-      <c r="L14" t="s">
-        <v>65</v>
+      <c r="L14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="O14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P14">
+        <v>7.6600000000000001E-3</v>
+      </c>
+      <c r="Q14">
+        <v>6.0200000000000002E-3</v>
       </c>
       <c r="U14">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f>B$1*C14</f>
+        <v>40</v>
       </c>
       <c r="V14">
-        <f t="shared" si="8"/>
+        <f>J14</f>
         <v>0.1</v>
       </c>
       <c r="W14">
-        <f t="shared" si="9"/>
+        <f>IF(ISBLANK(K14),V14,K14)</f>
         <v>0.1</v>
       </c>
       <c r="X14">
-        <f t="shared" si="10"/>
-        <v>1.6E-2</v>
+        <f>IF(ISBLANK(L14),W14,L14)</f>
+        <v>2.4E-2</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="11"/>
-        <v>1.6E-2</v>
+        <f>IF(ISBLANK(M14),X14,M14)</f>
+        <v>2.4E-2</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="12"/>
-        <v>1.6E-2</v>
+        <f>IF(ISBLANK(N14),Y14,N14)</f>
+        <v>2.4E-2</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="13"/>
-        <v>6.4000000000000003E-3</v>
+        <f>IF(ISBLANK(O14),Z14,O14)</f>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AB14">
-        <f t="shared" ref="AB14:AC14" si="49">IF(ISBLANK(J14),AA14,J14)</f>
-        <v>6.4000000000000003E-3</v>
+        <f>IF(ISBLANK(P14),AA14,P14)</f>
+        <v>7.6600000000000001E-3</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="49"/>
-        <v>2.8900000000000002E-3</v>
+        <f>IF(ISBLANK(Q14),AB14,Q14)</f>
+        <v>6.0200000000000002E-3</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="15"/>
-        <v>0.5</v>
+        <f>V14*MAX($U14,AE$4)/$B$1</f>
+        <v>0.4</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="16"/>
-        <v>0.5</v>
+        <f>W14*MAX($U14,AF$4)/$B$1</f>
+        <v>0.4</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="17"/>
-        <v>0.08</v>
+        <f>X14*MAX($U14,AG$4)/$B$1</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="18"/>
-        <v>0.08</v>
+        <f>Y14*MAX($U14,AH$4)/$B$1</f>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="19"/>
-        <v>0.08</v>
+        <f>Z14*MAX($U14,AI$4)/$B$1</f>
+        <v>0.12</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="20"/>
-        <v>3.2000000000000001E-2</v>
+        <f>AA14*MAX($U14,AJ$4)/$B$1</f>
+        <v>0.10999999999999999</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="21"/>
-        <v>3.2000000000000001E-2</v>
+        <f>AB14*MAX($U14,AK$4)/$B$1</f>
+        <v>0.38300000000000001</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="22"/>
-        <v>2.8900000000000002E-2</v>
+        <f>AC14*MAX($U14,AL$4)/$B$1</f>
+        <v>0.60200000000000009</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="23"/>
-        <v>2.8900000000000002E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="F15">
-        <v>1.6E-2</v>
-      </c>
-      <c r="I15">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="K15">
-        <v>2.8900000000000002E-3</v>
-      </c>
-      <c r="L15" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE15:AL15,CONCATENATE("=",AM15))</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.13</v>
+      </c>
+      <c r="O15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="P15">
+        <v>7.1879999999999999E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6.0380000000000003E-2</v>
       </c>
       <c r="U15">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f>B$1*C15</f>
+        <v>10</v>
       </c>
       <c r="V15">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
+        <f>J15</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W15">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <f>IF(ISBLANK(K15),V15,K15)</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="X15">
-        <f t="shared" si="10"/>
-        <v>1.6E-2</v>
+        <f>IF(ISBLANK(L15),W15,L15)</f>
+        <v>0.13</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="11"/>
-        <v>1.6E-2</v>
+        <f>IF(ISBLANK(M15),X15,M15)</f>
+        <v>0.13</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="12"/>
-        <v>1.6E-2</v>
+        <f>IF(ISBLANK(N15),Y15,N15)</f>
+        <v>0.13</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="13"/>
-        <v>6.4000000000000003E-3</v>
+        <f>IF(ISBLANK(O15),Z15,O15)</f>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="AB15">
-        <f t="shared" ref="AB15:AC15" si="50">IF(ISBLANK(J15),AA15,J15)</f>
-        <v>6.4000000000000003E-3</v>
+        <f>IF(ISBLANK(P15),AA15,P15)</f>
+        <v>7.1879999999999999E-2</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="50"/>
-        <v>2.8900000000000002E-3</v>
+        <f>IF(ISBLANK(Q15),AB15,Q15)</f>
+        <v>6.0380000000000003E-2</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="15"/>
-        <v>0.2</v>
+        <f>V15*MAX($U15,AE$4)/$B$1</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
+        <f>W15*MAX($U15,AF$4)/$B$1</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="17"/>
-        <v>3.2000000000000001E-2</v>
+        <f>X15*MAX($U15,AG$4)/$B$1</f>
+        <v>0.13</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="18"/>
-        <v>3.2000000000000001E-2</v>
+        <f>Y15*MAX($U15,AH$4)/$B$1</f>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="19"/>
-        <v>3.2000000000000001E-2</v>
+        <f>Z15*MAX($U15,AI$4)/$B$1</f>
+        <v>0.65</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="20"/>
-        <v>1.2800000000000001E-2</v>
+        <f>AA15*MAX($U15,AJ$4)/$B$1</f>
+        <v>0.86</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="21"/>
-        <v>3.2000000000000001E-2</v>
+        <f>AB15*MAX($U15,AK$4)/$B$1</f>
+        <v>3.5939999999999999</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="22"/>
-        <v>2.8900000000000002E-2</v>
+        <f>AC15*MAX($U15,AL$4)/$B$1</f>
+        <v>6.0380000000000003</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="23"/>
-        <v>1.2800000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.13</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="F16">
-        <v>0.12</v>
-      </c>
-      <c r="G16">
-        <v>0.11</v>
-      </c>
-      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE16:AL16,CONCATENATE("=",AM16))</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="L16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O16">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="Q16">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="U16">
+        <f>B$1*C16</f>
+        <v>50</v>
+      </c>
+      <c r="V16">
+        <f>J16</f>
+        <v>0.1</v>
+      </c>
+      <c r="W16">
+        <f>IF(ISBLANK(K16),V16,K16)</f>
+        <v>0.1</v>
+      </c>
+      <c r="X16">
+        <f>IF(ISBLANK(L16),W16,L16)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y16">
+        <f>IF(ISBLANK(M16),X16,M16)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="Z16">
+        <f>IF(ISBLANK(N16),Y16,N16)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="AA16">
+        <f>IF(ISBLANK(O16),Z16,O16)</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="AB16">
+        <f>IF(ISBLANK(P16),AA16,P16)</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="AC16">
+        <f>IF(ISBLANK(Q16),AB16,Q16)</f>
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="AE16">
+        <f>V16*MAX($U16,AE$4)/$B$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AF16">
+        <f>W16*MAX($U16,AF$4)/$B$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AG16">
+        <f>X16*MAX($U16,AG$4)/$B$1</f>
         <v>0.08</v>
       </c>
-      <c r="I16">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="K16">
-        <v>5.6829999999999999E-2</v>
-      </c>
-      <c r="L16" t="s">
-        <v>67</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="9"/>
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="10"/>
-        <v>0.12</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="11"/>
-        <v>0.11</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="12"/>
+      <c r="AH16">
+        <f>Y16*MAX($U16,AH$4)/$B$1</f>
         <v>0.08</v>
       </c>
-      <c r="AA16">
-        <f t="shared" si="13"/>
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" ref="AB16:AC16" si="51">IF(ISBLANK(J16),AA16,J16)</f>
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="51"/>
-        <v>5.6829999999999999E-2</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="15"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="16"/>
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="17"/>
-        <v>0.12</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="18"/>
-        <v>0.11</v>
-      </c>
       <c r="AI16">
-        <f t="shared" si="19"/>
+        <f>Z16*MAX($U16,AI$4)/$B$1</f>
         <v>0.08</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="20"/>
-        <v>7.5999999999999998E-2</v>
+        <f>AA16*MAX($U16,AJ$4)/$B$1</f>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="21"/>
-        <v>0.33149999999999996</v>
+        <f>AB16*MAX($U16,AK$4)/$B$1</f>
+        <v>0.32</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="22"/>
-        <v>0.56830000000000003</v>
+        <f>AC16*MAX($U16,AL$4)/$B$1</f>
+        <v>0.28900000000000003</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="23"/>
-        <v>7.5999999999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE17:AL17,CONCATENATE("=",AM17))</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="L17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O17">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="Q17">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="U17">
+        <f>B$1*C17</f>
+        <v>20</v>
+      </c>
+      <c r="V17">
+        <f>J17</f>
+        <v>0.1</v>
+      </c>
+      <c r="W17">
+        <f>IF(ISBLANK(K17),V17,K17)</f>
+        <v>0.1</v>
+      </c>
+      <c r="X17">
+        <f>IF(ISBLANK(L17),W17,L17)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="Y17">
+        <f>IF(ISBLANK(M17),X17,M17)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="Z17">
+        <f>IF(ISBLANK(N17),Y17,N17)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="AA17">
+        <f>IF(ISBLANK(O17),Z17,O17)</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="AB17">
+        <f>IF(ISBLANK(P17),AA17,P17)</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="AC17">
+        <f>IF(ISBLANK(Q17),AB17,Q17)</f>
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="AE17">
+        <f>V17*MAX($U17,AE$4)/$B$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AF17">
+        <f>W17*MAX($U17,AF$4)/$B$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AG17">
+        <f>X17*MAX($U17,AG$4)/$B$1</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AH17">
+        <f>Y17*MAX($U17,AH$4)/$B$1</f>
+        <v>0.04</v>
+      </c>
+      <c r="AI17">
+        <f>Z17*MAX($U17,AI$4)/$B$1</f>
+        <v>0.08</v>
+      </c>
+      <c r="AJ17">
+        <f>AA17*MAX($U17,AJ$4)/$B$1</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AK17">
+        <f>AB17*MAX($U17,AK$4)/$B$1</f>
+        <v>0.32</v>
+      </c>
+      <c r="AL17">
+        <f>AC17*MAX($U17,AL$4)/$B$1</f>
+        <v>0.28900000000000003</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE18:AL18,CONCATENATE("=",AM18))</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.12</v>
+      </c>
+      <c r="M18">
+        <v>0.11</v>
+      </c>
+      <c r="N18">
+        <v>0.08</v>
+      </c>
+      <c r="O18">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="Q18">
+        <v>5.6829999999999999E-2</v>
+      </c>
+      <c r="U18">
+        <f>B$1*C18</f>
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <f>J18</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W18">
+        <f>IF(ISBLANK(K18),V18,K18)</f>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="X18">
+        <f>IF(ISBLANK(L18),W18,L18)</f>
+        <v>0.12</v>
+      </c>
+      <c r="Y18">
+        <f>IF(ISBLANK(M18),X18,M18)</f>
+        <v>0.11</v>
+      </c>
+      <c r="Z18">
+        <f>IF(ISBLANK(N18),Y18,N18)</f>
+        <v>0.08</v>
+      </c>
+      <c r="AA18">
+        <f>IF(ISBLANK(O18),Z18,O18)</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AB18">
+        <f>IF(ISBLANK(P18),AA18,P18)</f>
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="AC18">
+        <f>IF(ISBLANK(Q18),AB18,Q18)</f>
+        <v>5.6829999999999999E-2</v>
+      </c>
+      <c r="AE18">
+        <f>V18*MAX($U18,AE$4)/$B$1</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF18">
+        <f>W18*MAX($U18,AF$4)/$B$1</f>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AG18">
+        <f>X18*MAX($U18,AG$4)/$B$1</f>
+        <v>0.12</v>
+      </c>
+      <c r="AH18">
+        <f>Y18*MAX($U18,AH$4)/$B$1</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AI18">
+        <f>Z18*MAX($U18,AI$4)/$B$1</f>
+        <v>0.4</v>
+      </c>
+      <c r="AJ18">
+        <f>AA18*MAX($U18,AJ$4)/$B$1</f>
+        <v>0.76</v>
+      </c>
+      <c r="AK18">
+        <f>AB18*MAX($U18,AK$4)/$B$1</f>
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="AL18">
+        <f>AC18*MAX($U18,AL$4)/$B$1</f>
+        <v>5.6829999999999998</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D19" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE19:AL19,CONCATENATE("=",AM19))</f>
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="K19">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="L19">
         <f>7/10</f>
         <v>0.7</v>
       </c>
-      <c r="G17">
+      <c r="M19">
         <f>8/25</f>
         <v>0.32</v>
       </c>
-      <c r="H17">
+      <c r="N19">
         <f>14/50</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="I17">
+      <c r="O19">
         <f>17/100</f>
         <v>0.17</v>
       </c>
-      <c r="L17" t="s">
-        <v>37</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="8"/>
+      <c r="U19">
+        <f>B$1*C19</f>
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <f>J19</f>
         <v>5</v>
       </c>
-      <c r="W17">
-        <f t="shared" si="9"/>
+      <c r="W19">
+        <f>IF(ISBLANK(K19),V19,K19)</f>
         <v>1</v>
       </c>
-      <c r="X17">
-        <f t="shared" si="10"/>
+      <c r="X19">
+        <f>IF(ISBLANK(L19),W19,L19)</f>
         <v>0.7</v>
       </c>
-      <c r="Y17">
-        <f t="shared" si="11"/>
+      <c r="Y19">
+        <f>IF(ISBLANK(M19),X19,M19)</f>
         <v>0.32</v>
       </c>
-      <c r="Z17">
-        <f t="shared" si="12"/>
+      <c r="Z19">
+        <f>IF(ISBLANK(N19),Y19,N19)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AA17">
-        <f t="shared" si="13"/>
+      <c r="AA19">
+        <f>IF(ISBLANK(O19),Z19,O19)</f>
         <v>0.17</v>
       </c>
-      <c r="AB17">
-        <f t="shared" ref="AB17:AC17" si="52">IF(ISBLANK(J17),AA17,J17)</f>
+      <c r="AB19">
+        <f>IF(ISBLANK(P19),AA19,P19)</f>
         <v>0.17</v>
       </c>
-      <c r="AC17">
-        <f t="shared" si="52"/>
+      <c r="AC19">
+        <f>IF(ISBLANK(Q19),AB19,Q19)</f>
         <v>0.17</v>
       </c>
-      <c r="AE17">
-        <f t="shared" si="15"/>
+      <c r="AE19">
+        <f>V19*MAX($U19,AE$4)/$B$1</f>
         <v>5</v>
       </c>
-      <c r="AF17">
-        <f t="shared" si="16"/>
+      <c r="AF19">
+        <f>W19*MAX($U19,AF$4)/$B$1</f>
         <v>1</v>
       </c>
-      <c r="AG17">
-        <f t="shared" si="17"/>
+      <c r="AG19">
+        <f>X19*MAX($U19,AG$4)/$B$1</f>
         <v>0.7</v>
       </c>
-      <c r="AH17">
-        <f t="shared" si="18"/>
-        <v>0.32</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="19"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="20"/>
-        <v>0.17</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="21"/>
-        <v>0.85</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="22"/>
+      <c r="AH19">
+        <f>Y19*MAX($U19,AH$4)/$B$1</f>
+        <v>0.8</v>
+      </c>
+      <c r="AI19">
+        <f>Z19*MAX($U19,AI$4)/$B$1</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AJ19">
+        <f>AA19*MAX($U19,AJ$4)/$B$1</f>
         <v>1.7</v>
       </c>
-      <c r="AM17">
-        <f t="shared" si="23"/>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f>E18*5</f>
-        <v>88.31</v>
-      </c>
-      <c r="E18">
-        <f>88.31/5</f>
-        <v>17.661999999999999</v>
-      </c>
-      <c r="F18">
-        <f>93.38/10</f>
-        <v>9.3379999999999992</v>
-      </c>
-      <c r="G18">
-        <f>101.36/25</f>
-        <v>4.0544000000000002</v>
-      </c>
-      <c r="H18">
-        <f>156.36/50</f>
-        <v>3.1272000000000002</v>
-      </c>
-      <c r="I18">
-        <f>252/100</f>
-        <v>2.52</v>
-      </c>
-      <c r="L18" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="8"/>
-        <v>88.31</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="9"/>
-        <v>17.661999999999999</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="10"/>
-        <v>9.3379999999999992</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="11"/>
-        <v>4.0544000000000002</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="12"/>
-        <v>3.1272000000000002</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="13"/>
-        <v>2.52</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" ref="AB18:AC18" si="53">IF(ISBLANK(J18),AA18,J18)</f>
-        <v>2.52</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="53"/>
-        <v>2.52</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="15"/>
-        <v>88.31</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="16"/>
-        <v>17.661999999999999</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="17"/>
-        <v>9.3379999999999992</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="18"/>
-        <v>4.0544000000000002</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="19"/>
-        <v>3.1272000000000002</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="20"/>
-        <v>2.52</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="21"/>
-        <v>12.6</v>
-      </c>
-      <c r="AL18">
-        <f t="shared" si="22"/>
-        <v>25.2</v>
-      </c>
-      <c r="AM18">
-        <f t="shared" si="23"/>
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>35.71</v>
-      </c>
-      <c r="E19">
-        <f>35.71/5</f>
-        <v>7.1420000000000003</v>
-      </c>
-      <c r="F19">
-        <f>35.71/10</f>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="L19" t="s">
-        <v>51</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="8"/>
-        <v>35.71</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="9"/>
-        <v>7.1420000000000003</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="10"/>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="11"/>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="12"/>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="13"/>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" ref="AB19:AC20" si="54">IF(ISBLANK(J19),AA19,J19)</f>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="54"/>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="15"/>
-        <v>35.71</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="16"/>
-        <v>7.1420000000000003</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="17"/>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="18"/>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="19"/>
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="AJ19">
-        <f t="shared" si="20"/>
-        <v>3.5710000000000002</v>
-      </c>
       <c r="AK19">
-        <f t="shared" si="21"/>
-        <v>17.855</v>
+        <f>AB19*MAX($U19,AK$4)/$B$1</f>
+        <v>8.5</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="22"/>
-        <v>35.71</v>
+        <f>AC19*MAX($U19,AL$4)/$B$1</f>
+        <v>17</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="23"/>
-        <v>3.5710000000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
@@ -3604,327 +3520,532 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <f>E20*5</f>
+      <c r="D20" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE20:AL20,CONCATENATE("=",AM20))</f>
+        <v>10</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <f>K20*5</f>
+        <v>88.31</v>
+      </c>
+      <c r="K20">
+        <f>88.31/5</f>
+        <v>17.661999999999999</v>
+      </c>
+      <c r="L20">
+        <f>93.38/10</f>
+        <v>9.3379999999999992</v>
+      </c>
+      <c r="M20">
+        <f>101.36/25</f>
+        <v>4.0544000000000002</v>
+      </c>
+      <c r="N20">
+        <f>156.36/50</f>
+        <v>3.1272000000000002</v>
+      </c>
+      <c r="O20">
+        <f>252/100</f>
+        <v>2.52</v>
+      </c>
+      <c r="U20">
+        <f>B$1*C20</f>
+        <v>10</v>
+      </c>
+      <c r="V20">
+        <f>J20</f>
+        <v>88.31</v>
+      </c>
+      <c r="W20">
+        <f>IF(ISBLANK(K20),V20,K20)</f>
+        <v>17.661999999999999</v>
+      </c>
+      <c r="X20">
+        <f>IF(ISBLANK(L20),W20,L20)</f>
+        <v>9.3379999999999992</v>
+      </c>
+      <c r="Y20">
+        <f>IF(ISBLANK(M20),X20,M20)</f>
+        <v>4.0544000000000002</v>
+      </c>
+      <c r="Z20">
+        <f>IF(ISBLANK(N20),Y20,N20)</f>
+        <v>3.1272000000000002</v>
+      </c>
+      <c r="AA20">
+        <f>IF(ISBLANK(O20),Z20,O20)</f>
+        <v>2.52</v>
+      </c>
+      <c r="AB20">
+        <f>IF(ISBLANK(P20),AA20,P20)</f>
+        <v>2.52</v>
+      </c>
+      <c r="AC20">
+        <f>IF(ISBLANK(Q20),AB20,Q20)</f>
+        <v>2.52</v>
+      </c>
+      <c r="AE20">
+        <f>V20*MAX($U20,AE$4)/$B$1</f>
+        <v>88.31</v>
+      </c>
+      <c r="AF20">
+        <f>W20*MAX($U20,AF$4)/$B$1</f>
+        <v>17.661999999999999</v>
+      </c>
+      <c r="AG20">
+        <f>X20*MAX($U20,AG$4)/$B$1</f>
+        <v>9.3379999999999992</v>
+      </c>
+      <c r="AH20">
+        <f>Y20*MAX($U20,AH$4)/$B$1</f>
+        <v>10.135999999999999</v>
+      </c>
+      <c r="AI20">
+        <f>Z20*MAX($U20,AI$4)/$B$1</f>
+        <v>15.636000000000001</v>
+      </c>
+      <c r="AJ20">
+        <f>AA20*MAX($U20,AJ$4)/$B$1</f>
+        <v>25.2</v>
+      </c>
+      <c r="AK20">
+        <f>AB20*MAX($U20,AK$4)/$B$1</f>
+        <v>126</v>
+      </c>
+      <c r="AL20">
+        <f>AC20*MAX($U20,AL$4)/$B$1</f>
+        <v>252</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="3"/>
+        <v>9.3379999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE21:AL21,CONCATENATE("=",AM21))</f>
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21">
+        <v>35.71</v>
+      </c>
+      <c r="K21">
+        <f>35.71/5</f>
+        <v>7.1420000000000003</v>
+      </c>
+      <c r="L21">
+        <f>35.71/10</f>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="U21">
+        <f>B$1*C21</f>
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <f>J21</f>
+        <v>35.71</v>
+      </c>
+      <c r="W21">
+        <f>IF(ISBLANK(K21),V21,K21)</f>
+        <v>7.1420000000000003</v>
+      </c>
+      <c r="X21">
+        <f>IF(ISBLANK(L21),W21,L21)</f>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="Y21">
+        <f>IF(ISBLANK(M21),X21,M21)</f>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="Z21">
+        <f>IF(ISBLANK(N21),Y21,N21)</f>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="AA21">
+        <f>IF(ISBLANK(O21),Z21,O21)</f>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="AB21">
+        <f>IF(ISBLANK(P21),AA21,P21)</f>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="AC21">
+        <f>IF(ISBLANK(Q21),AB21,Q21)</f>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="AE21">
+        <f>V21*MAX($U21,AE$4)/$B$1</f>
+        <v>35.71</v>
+      </c>
+      <c r="AF21">
+        <f>W21*MAX($U21,AF$4)/$B$1</f>
+        <v>7.1420000000000003</v>
+      </c>
+      <c r="AG21">
+        <f>X21*MAX($U21,AG$4)/$B$1</f>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="AH21">
+        <f>Y21*MAX($U21,AH$4)/$B$1</f>
+        <v>8.9275000000000002</v>
+      </c>
+      <c r="AI21">
+        <f>Z21*MAX($U21,AI$4)/$B$1</f>
+        <v>17.855</v>
+      </c>
+      <c r="AJ21">
+        <f>AA21*MAX($U21,AJ$4)/$B$1</f>
+        <v>35.71</v>
+      </c>
+      <c r="AK21">
+        <f>AB21*MAX($U21,AK$4)/$B$1</f>
+        <v>178.55</v>
+      </c>
+      <c r="AL21">
+        <f>AC21*MAX($U21,AL$4)/$B$1</f>
+        <v>357.1</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="3"/>
+        <v>3.5710000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE22:AL22,CONCATENATE("=",AM22))</f>
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22">
+        <f>K22*5</f>
         <v>14.34</v>
       </c>
-      <c r="E20">
+      <c r="K22">
         <f>14.34/5</f>
         <v>2.8679999999999999</v>
       </c>
-      <c r="F20">
+      <c r="L22">
         <f>79.3/50</f>
         <v>1.5859999999999999</v>
       </c>
-      <c r="L20" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" t="s">
-        <v>56</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="8"/>
+      <c r="U22">
+        <f>B$1*C22</f>
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <f>J22</f>
         <v>14.34</v>
       </c>
-      <c r="W20">
-        <f t="shared" si="9"/>
+      <c r="W22">
+        <f>IF(ISBLANK(K22),V22,K22)</f>
         <v>2.8679999999999999</v>
       </c>
-      <c r="X20">
-        <f t="shared" ref="X20" si="55">IF(ISBLANK(F20),W20,F20)</f>
+      <c r="X22">
+        <f>IF(ISBLANK(L22),W22,L22)</f>
         <v>1.5859999999999999</v>
       </c>
-      <c r="Y20">
-        <f t="shared" ref="Y20" si="56">IF(ISBLANK(G20),X20,G20)</f>
+      <c r="Y22">
+        <f>IF(ISBLANK(M22),X22,M22)</f>
         <v>1.5859999999999999</v>
       </c>
-      <c r="Z20">
-        <f t="shared" ref="Z20" si="57">IF(ISBLANK(H20),Y20,H20)</f>
+      <c r="Z22">
+        <f>IF(ISBLANK(N22),Y22,N22)</f>
         <v>1.5859999999999999</v>
       </c>
-      <c r="AA20">
-        <f t="shared" ref="AA20" si="58">IF(ISBLANK(I20),Z20,I20)</f>
+      <c r="AA22">
+        <f>IF(ISBLANK(O22),Z22,O22)</f>
         <v>1.5859999999999999</v>
       </c>
-      <c r="AB20">
-        <f t="shared" si="54"/>
+      <c r="AB22">
+        <f>IF(ISBLANK(P22),AA22,P22)</f>
         <v>1.5859999999999999</v>
       </c>
-      <c r="AC20">
-        <f t="shared" si="54"/>
+      <c r="AC22">
+        <f>IF(ISBLANK(Q22),AB22,Q22)</f>
         <v>1.5859999999999999</v>
       </c>
-      <c r="AE20">
-        <f t="shared" si="15"/>
+      <c r="AE22">
+        <f>V22*MAX($U22,AE$4)/$B$1</f>
         <v>14.34</v>
       </c>
-      <c r="AF20">
-        <f t="shared" si="16"/>
-        <v>2.8680000000000003</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="17"/>
+      <c r="AF22">
+        <f>W22*MAX($U22,AF$4)/$B$1</f>
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="AG22">
+        <f>X22*MAX($U22,AG$4)/$B$1</f>
         <v>1.5859999999999999</v>
       </c>
-      <c r="AH20">
-        <f t="shared" si="18"/>
+      <c r="AH22">
+        <f>Y22*MAX($U22,AH$4)/$B$1</f>
+        <v>3.9649999999999999</v>
+      </c>
+      <c r="AI22">
+        <f>Z22*MAX($U22,AI$4)/$B$1</f>
+        <v>7.93</v>
+      </c>
+      <c r="AJ22">
+        <f>AA22*MAX($U22,AJ$4)/$B$1</f>
+        <v>15.86</v>
+      </c>
+      <c r="AK22">
+        <f>AB22*MAX($U22,AK$4)/$B$1</f>
+        <v>79.299999999999983</v>
+      </c>
+      <c r="AL22">
+        <f>AC22*MAX($U22,AL$4)/$B$1</f>
+        <v>158.59999999999997</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="3"/>
         <v>1.5859999999999999</v>
       </c>
-      <c r="AI20">
-        <f t="shared" si="19"/>
-        <v>1.5859999999999999</v>
-      </c>
-      <c r="AJ20">
-        <f t="shared" si="20"/>
-        <v>1.5859999999999999</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="21"/>
-        <v>7.9299999999999988</v>
-      </c>
-      <c r="AL20">
-        <f t="shared" si="22"/>
-        <v>15.859999999999998</v>
-      </c>
-      <c r="AM20">
-        <f t="shared" si="23"/>
-        <v>1.5859999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D23" s="6">
+        <f>_xlfn.MAXIFS(AE$4:AL$4,AE23:AL23,CONCATENATE("=",AM23))</f>
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23">
         <v>8.67</v>
       </c>
-      <c r="E21">
-        <f>$D21/E2</f>
+      <c r="K23">
+        <f>$J23/K4</f>
         <v>1.734</v>
       </c>
-      <c r="F21">
-        <f>$D21/F2</f>
+      <c r="L23">
+        <f>$J23/L4</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="G21">
-        <f>2*$D21/G2</f>
+      <c r="M23">
+        <f>2*$J23/M4</f>
         <v>0.69359999999999999</v>
       </c>
-      <c r="H21">
-        <f>5*$D21/H2</f>
+      <c r="N23">
+        <f>5*$J23/N4</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="I21">
-        <f>10*$D21/I2</f>
+      <c r="O23">
+        <f>10*$J23/O4</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="L21" t="s">
-        <v>53</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="V21">
-        <f t="shared" ref="V21" si="59">D21</f>
+      <c r="U23">
+        <f>B$1*C23</f>
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <f>J23</f>
         <v>8.67</v>
       </c>
-      <c r="W21">
-        <f t="shared" ref="W21" si="60">IF(ISBLANK(E21),V21,E21)</f>
+      <c r="W23">
+        <f>IF(ISBLANK(K23),V23,K23)</f>
         <v>1.734</v>
       </c>
-      <c r="X21">
-        <f t="shared" ref="X21" si="61">IF(ISBLANK(F21),W21,F21)</f>
+      <c r="X23">
+        <f>IF(ISBLANK(L23),W23,L23)</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="Y21">
-        <f t="shared" ref="Y21" si="62">IF(ISBLANK(G21),X21,G21)</f>
+      <c r="Y23">
+        <f>IF(ISBLANK(M23),X23,M23)</f>
         <v>0.69359999999999999</v>
       </c>
-      <c r="Z21">
-        <f t="shared" ref="Z21" si="63">IF(ISBLANK(H21),Y21,H21)</f>
+      <c r="Z23">
+        <f>IF(ISBLANK(N23),Y23,N23)</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="AA21">
-        <f t="shared" ref="AA21" si="64">IF(ISBLANK(I21),Z21,I21)</f>
+      <c r="AA23">
+        <f>IF(ISBLANK(O23),Z23,O23)</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="AB21">
-        <f t="shared" ref="AB21" si="65">IF(ISBLANK(J21),AA21,J21)</f>
+      <c r="AB23">
+        <f>IF(ISBLANK(P23),AA23,P23)</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="AC21">
-        <f t="shared" ref="AC21" si="66">IF(ISBLANK(K21),AB21,K21)</f>
+      <c r="AC23">
+        <f>IF(ISBLANK(Q23),AB23,Q23)</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="AE21">
-        <f t="shared" si="15"/>
+      <c r="AE23">
+        <f>V23*MAX($U23,AE$4)/$B$1</f>
         <v>8.67</v>
       </c>
-      <c r="AF21">
-        <f t="shared" si="16"/>
+      <c r="AF23">
+        <f>W23*MAX($U23,AF$4)/$B$1</f>
         <v>1.734</v>
       </c>
-      <c r="AG21">
-        <f t="shared" si="17"/>
+      <c r="AG23">
+        <f>X23*MAX($U23,AG$4)/$B$1</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="AH21">
-        <f t="shared" si="18"/>
-        <v>0.69359999999999999</v>
-      </c>
-      <c r="AI21">
-        <f t="shared" si="19"/>
+      <c r="AH23">
+        <f>Y23*MAX($U23,AH$4)/$B$1</f>
+        <v>1.734</v>
+      </c>
+      <c r="AI23">
+        <f>Z23*MAX($U23,AI$4)/$B$1</f>
+        <v>4.335</v>
+      </c>
+      <c r="AJ23">
+        <f>AA23*MAX($U23,AJ$4)/$B$1</f>
+        <v>8.67</v>
+      </c>
+      <c r="AK23">
+        <f>AB23*MAX($U23,AK$4)/$B$1</f>
+        <v>43.35</v>
+      </c>
+      <c r="AL23">
+        <f>AC23*MAX($U23,AL$4)/$B$1</f>
+        <v>86.7</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" ref="AM23" si="5">MIN(AE23:AL23)</f>
         <v>0.86699999999999999</v>
       </c>
-      <c r="AJ21">
-        <f t="shared" si="20"/>
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="21"/>
-        <v>4.335</v>
-      </c>
-      <c r="AL21">
-        <f t="shared" si="22"/>
-        <v>8.67</v>
-      </c>
-      <c r="AM21">
-        <f t="shared" ref="AM21" si="67">MIN(AE21:AL21)</f>
-        <v>0.69359999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AM22">
-        <f>SUM(AM3:AM21)</f>
-        <v>29.297799999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>180.82999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="X27">
-        <v>5</v>
-      </c>
-      <c r="Y27">
-        <v>58.201000000000008</v>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM24">
+        <f>SUM(AM5:AM23)</f>
+        <v>41.483999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X28">
-        <f>X27+5</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <v>41.628499999999988</v>
+        <v>180.82999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X29">
-        <f t="shared" ref="X29:X46" si="68">X28+5</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y29">
-        <v>38.548333333333325</v>
+        <v>58.201000000000008</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X30">
-        <f t="shared" si="68"/>
-        <v>20</v>
+        <f>X29+5</f>
+        <v>10</v>
       </c>
       <c r="Y30">
-        <v>36.639999999999993</v>
+        <v>41.628499999999988</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X31">
-        <f t="shared" si="68"/>
-        <v>25</v>
+        <f t="shared" ref="X31:X48" si="6">X30+5</f>
+        <v>15</v>
       </c>
       <c r="Y31">
-        <v>34.514600000000002</v>
+        <v>38.548333333333325</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="X32">
-        <f t="shared" si="68"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="Y32">
-        <v>34.448333333333323</v>
+        <v>36.639999999999993</v>
       </c>
     </row>
     <row r="33" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X33">
-        <f t="shared" si="68"/>
-        <v>35</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="Y33">
-        <v>34.411285714285711</v>
+        <v>34.514600000000002</v>
       </c>
     </row>
     <row r="34" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X34">
-        <f t="shared" si="68"/>
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y34">
-        <v>34.246099999999998</v>
+        <v>34.448333333333323</v>
       </c>
     </row>
     <row r="35" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X35">
-        <f t="shared" si="68"/>
-        <v>45</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="Y35">
-        <v>33.778599999999997</v>
+        <v>34.411285714285711</v>
       </c>
     </row>
     <row r="36" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X36">
-        <f t="shared" si="68"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="Y36">
-        <v>33.260599999999997</v>
+        <v>34.246099999999998</v>
       </c>
     </row>
     <row r="37" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X37">
-        <f t="shared" si="68"/>
-        <v>55</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="Y37">
-        <v>33.260599999999997</v>
+        <v>33.778599999999997</v>
       </c>
     </row>
     <row r="38" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X38">
-        <f t="shared" si="68"/>
-        <v>60</v>
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="Y38">
         <v>33.260599999999997</v>
@@ -3932,99 +4053,115 @@
     </row>
     <row r="39" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X39">
-        <f t="shared" si="68"/>
-        <v>65</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
       <c r="Y39">
-        <v>33.24213846153846</v>
+        <v>33.260599999999997</v>
       </c>
     </row>
     <row r="40" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X40">
-        <f t="shared" si="68"/>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="Y40">
-        <v>33.21631428571429</v>
+        <v>33.260599999999997</v>
       </c>
     </row>
     <row r="41" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X41">
-        <f t="shared" si="68"/>
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>65</v>
       </c>
       <c r="Y41">
-        <v>32.84859999999999</v>
+        <v>33.24213846153846</v>
       </c>
     </row>
     <row r="42" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X42">
-        <f t="shared" si="68"/>
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="Y42">
-        <v>32.520600000000002</v>
+        <v>33.21631428571429</v>
       </c>
     </row>
     <row r="43" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X43">
-        <f t="shared" si="68"/>
-        <v>85</v>
+        <f t="shared" si="6"/>
+        <v>75</v>
       </c>
       <c r="Y43">
-        <v>31.976341176470587</v>
+        <v>32.84859999999999</v>
       </c>
     </row>
     <row r="44" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X44">
-        <f t="shared" si="68"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="Y44">
-        <v>31.163400000000003</v>
-      </c>
-      <c r="AB44">
-        <v>10</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>58</v>
+        <v>32.520600000000002</v>
       </c>
     </row>
     <row r="45" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X45">
-        <f t="shared" si="68"/>
-        <v>95</v>
+        <f t="shared" si="6"/>
+        <v>85</v>
       </c>
       <c r="Y45">
-        <v>30.18182105263158</v>
-      </c>
-      <c r="AB45">
-        <v>25</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>59</v>
+        <v>31.976341176470587</v>
       </c>
     </row>
     <row r="46" spans="24:29" x14ac:dyDescent="0.25">
       <c r="X46">
-        <f t="shared" si="68"/>
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="Y46">
+        <v>31.163400000000003</v>
+      </c>
+      <c r="AB46">
+        <v>10</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="24:29" x14ac:dyDescent="0.25">
+      <c r="X47">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="Y47">
+        <v>30.18182105263158</v>
+      </c>
+      <c r="AB47">
+        <v>25</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="24:29" x14ac:dyDescent="0.25">
+      <c r="X48">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="Y46">
+      <c r="Y48">
         <v>29.229300000000002</v>
       </c>
-      <c r="AB46">
+      <c r="AB48">
         <v>100</v>
       </c>
-      <c r="AC46" t="s">
-        <v>60</v>
+      <c r="AC48" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L20" r:id="rId1" xr:uid="{5FFCE730-EC69-449B-B296-FE242C459BF3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>